--- a/data/pca/factorExposure/factorExposure_2011-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02369979928231138</v>
+        <v>0.01928147955999949</v>
       </c>
       <c r="C2">
-        <v>-0.00437067725565712</v>
+        <v>0.001743666503754013</v>
       </c>
       <c r="D2">
-        <v>0.0546719862928858</v>
+        <v>-0.003123484571074531</v>
       </c>
       <c r="E2">
-        <v>0.02688618010995825</v>
+        <v>0.03768226749691678</v>
       </c>
       <c r="F2">
-        <v>-0.02100427519413939</v>
+        <v>-0.007001543091128296</v>
       </c>
       <c r="G2">
-        <v>-0.04440145401382044</v>
+        <v>0.02747595834110207</v>
       </c>
       <c r="H2">
-        <v>-0.02523225262627372</v>
+        <v>-0.02111356254826548</v>
       </c>
       <c r="I2">
-        <v>-0.03090034407394313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.01926352632638898</v>
+      </c>
+      <c r="J2">
+        <v>0.0558223178980966</v>
+      </c>
+      <c r="K2">
+        <v>0.0001784315487881954</v>
+      </c>
+      <c r="L2">
+        <v>0.05692523613061577</v>
+      </c>
+      <c r="M2">
+        <v>-0.03750423637882618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06963571695873312</v>
+        <v>0.1048183970282318</v>
       </c>
       <c r="C4">
-        <v>0.05774845487140461</v>
+        <v>-0.07672544168451724</v>
       </c>
       <c r="D4">
-        <v>0.03901867314700891</v>
+        <v>-0.01847237152492893</v>
       </c>
       <c r="E4">
-        <v>0.04283435530743317</v>
+        <v>0.04949836843205963</v>
       </c>
       <c r="F4">
-        <v>0.03513199251897375</v>
+        <v>-0.09759349355302409</v>
       </c>
       <c r="G4">
-        <v>-0.002382450701040838</v>
+        <v>-0.02387055123412874</v>
       </c>
       <c r="H4">
-        <v>0.008307974699019583</v>
+        <v>0.07653053605725511</v>
       </c>
       <c r="I4">
-        <v>-0.009925185263065756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.0151188979389227</v>
+      </c>
+      <c r="J4">
+        <v>0.02274557470235824</v>
+      </c>
+      <c r="K4">
+        <v>-0.05274406670908298</v>
+      </c>
+      <c r="L4">
+        <v>-0.0755081543010343</v>
+      </c>
+      <c r="M4">
+        <v>-0.02591582556707463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1256941784997758</v>
+        <v>0.1282285409383642</v>
       </c>
       <c r="C6">
-        <v>0.03052644030676239</v>
+        <v>-0.05084548684115898</v>
       </c>
       <c r="D6">
-        <v>0.06690662321452406</v>
+        <v>-0.001903071339119418</v>
       </c>
       <c r="E6">
-        <v>0.1026717195657238</v>
+        <v>0.03460034845504271</v>
       </c>
       <c r="F6">
-        <v>0.03835022660910902</v>
+        <v>-0.03241094881392655</v>
       </c>
       <c r="G6">
-        <v>0.1017228239228399</v>
+        <v>-0.1696935442932746</v>
       </c>
       <c r="H6">
-        <v>-0.1035511837506266</v>
+        <v>-0.03101947098476034</v>
       </c>
       <c r="I6">
-        <v>0.2651299951466287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.07823889545241738</v>
+      </c>
+      <c r="J6">
+        <v>-0.02716121438082914</v>
+      </c>
+      <c r="K6">
+        <v>-0.4296649906602605</v>
+      </c>
+      <c r="L6">
+        <v>0.0428826738748595</v>
+      </c>
+      <c r="M6">
+        <v>0.06447301155136706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06590924115001807</v>
+        <v>0.07044434822623859</v>
       </c>
       <c r="C7">
-        <v>0.05123643316718411</v>
+        <v>-0.07469612572172503</v>
       </c>
       <c r="D7">
-        <v>0.05690160848633209</v>
+        <v>-0.002603857370735404</v>
       </c>
       <c r="E7">
-        <v>0.03123221374869721</v>
+        <v>0.04539880950478193</v>
       </c>
       <c r="F7">
-        <v>0.02429968958993961</v>
+        <v>-0.01862267435235574</v>
       </c>
       <c r="G7">
-        <v>0.03813943489977682</v>
+        <v>-0.00385924329918417</v>
       </c>
       <c r="H7">
-        <v>-0.003187068341798635</v>
+        <v>0.05475998441541091</v>
       </c>
       <c r="I7">
-        <v>-0.04883887352002837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.02220506454915273</v>
+      </c>
+      <c r="J7">
+        <v>-0.004169530102685522</v>
+      </c>
+      <c r="K7">
+        <v>0.04910847613686389</v>
+      </c>
+      <c r="L7">
+        <v>-0.07720587715360813</v>
+      </c>
+      <c r="M7">
+        <v>-0.01042383734102501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02556019473161288</v>
+        <v>0.03421557644211261</v>
       </c>
       <c r="C8">
-        <v>0.01674355811547069</v>
+        <v>-0.01138765593700391</v>
       </c>
       <c r="D8">
-        <v>0.03934770983210371</v>
+        <v>-0.0164072746599235</v>
       </c>
       <c r="E8">
-        <v>0.05263562995698881</v>
+        <v>0.05016855731883453</v>
       </c>
       <c r="F8">
-        <v>-0.03473146203963597</v>
+        <v>-0.0987624480901941</v>
       </c>
       <c r="G8">
-        <v>0.007556483576699641</v>
+        <v>-0.01876886682312639</v>
       </c>
       <c r="H8">
-        <v>-0.0379279891902849</v>
+        <v>0.05292788213760476</v>
       </c>
       <c r="I8">
-        <v>-0.04815593380584685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.002247529543456055</v>
+      </c>
+      <c r="J8">
+        <v>0.05446412339787267</v>
+      </c>
+      <c r="K8">
+        <v>-0.04578949577361036</v>
+      </c>
+      <c r="L8">
+        <v>-0.06477734081444758</v>
+      </c>
+      <c r="M8">
+        <v>-0.003203290317253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07120421904706956</v>
+        <v>0.08402280118859461</v>
       </c>
       <c r="C9">
-        <v>0.07545509728005927</v>
+        <v>-0.06890580242037642</v>
       </c>
       <c r="D9">
-        <v>0.04315456407591787</v>
+        <v>5.250705810491418e-05</v>
       </c>
       <c r="E9">
-        <v>0.02751143960239254</v>
+        <v>0.03195545187282731</v>
       </c>
       <c r="F9">
-        <v>0.01980606739073911</v>
+        <v>-0.09970716215883667</v>
       </c>
       <c r="G9">
-        <v>-0.009365976628775289</v>
+        <v>-0.0132170159369712</v>
       </c>
       <c r="H9">
-        <v>0.007371699286400033</v>
+        <v>0.07289039824190154</v>
       </c>
       <c r="I9">
-        <v>-0.02462167273878145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.02865727346064735</v>
+      </c>
+      <c r="J9">
+        <v>0.01149183579884452</v>
+      </c>
+      <c r="K9">
+        <v>-0.02813483889130513</v>
+      </c>
+      <c r="L9">
+        <v>-0.0360904808266516</v>
+      </c>
+      <c r="M9">
+        <v>0.002863665929447597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06256084881960794</v>
+        <v>0.10737782926723</v>
       </c>
       <c r="C10">
-        <v>-0.1344753761608942</v>
+        <v>0.1687191472258059</v>
       </c>
       <c r="D10">
-        <v>0.057012315548953</v>
+        <v>-0.009732730970932961</v>
       </c>
       <c r="E10">
-        <v>0.03387237884554517</v>
+        <v>0.04964395922381629</v>
       </c>
       <c r="F10">
-        <v>-0.002537111157935234</v>
+        <v>0.01493176906796491</v>
       </c>
       <c r="G10">
-        <v>0.04655443825892756</v>
+        <v>-0.01174541268302169</v>
       </c>
       <c r="H10">
-        <v>-0.03480843241539404</v>
+        <v>-0.001623547784434915</v>
       </c>
       <c r="I10">
-        <v>0.01213301911115108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.0203170434119155</v>
+      </c>
+      <c r="J10">
+        <v>-0.04247867727026828</v>
+      </c>
+      <c r="K10">
+        <v>0.06188874052682522</v>
+      </c>
+      <c r="L10">
+        <v>0.02491931164642799</v>
+      </c>
+      <c r="M10">
+        <v>0.04422418228447953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06386762627766339</v>
+        <v>0.06627867537387348</v>
       </c>
       <c r="C11">
-        <v>0.08983031192893592</v>
+        <v>-0.07082247517301259</v>
       </c>
       <c r="D11">
-        <v>0.03743426990940709</v>
+        <v>0.03096851454402199</v>
       </c>
       <c r="E11">
-        <v>0.001218264054420251</v>
+        <v>0.01619033106520279</v>
       </c>
       <c r="F11">
-        <v>-0.03166321498595515</v>
+        <v>-0.105781843444262</v>
       </c>
       <c r="G11">
-        <v>-0.03863970340530306</v>
+        <v>0.01813321271779994</v>
       </c>
       <c r="H11">
-        <v>0.008378717081909343</v>
+        <v>0.03895791536214469</v>
       </c>
       <c r="I11">
-        <v>-0.07664152899339134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.04487844681071709</v>
+      </c>
+      <c r="J11">
+        <v>0.02847673699322455</v>
+      </c>
+      <c r="K11">
+        <v>0.07893342694617678</v>
+      </c>
+      <c r="L11">
+        <v>0.02379272770764504</v>
+      </c>
+      <c r="M11">
+        <v>0.05847671949474816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05747494809338993</v>
+        <v>0.06949645978936332</v>
       </c>
       <c r="C12">
-        <v>0.05555946985353138</v>
+        <v>-0.06137466375425728</v>
       </c>
       <c r="D12">
-        <v>0.01445116089725361</v>
+        <v>0.02983982086271378</v>
       </c>
       <c r="E12">
-        <v>0.01153611263412783</v>
+        <v>0.005972970302280411</v>
       </c>
       <c r="F12">
-        <v>0.01035898756703428</v>
+        <v>-0.1163388540364865</v>
       </c>
       <c r="G12">
-        <v>0.002173379697881804</v>
+        <v>0.01721802329419394</v>
       </c>
       <c r="H12">
-        <v>0.0123360727446167</v>
+        <v>0.03779226358278997</v>
       </c>
       <c r="I12">
-        <v>-0.08094311782759481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.06165615603231048</v>
+      </c>
+      <c r="J12">
+        <v>0.05708668160967222</v>
+      </c>
+      <c r="K12">
+        <v>0.06345888999901798</v>
+      </c>
+      <c r="L12">
+        <v>-0.01357752888214135</v>
+      </c>
+      <c r="M12">
+        <v>0.1031504915398899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05894168499822103</v>
+        <v>0.04795021896968357</v>
       </c>
       <c r="C13">
-        <v>0.0140899136892469</v>
+        <v>-0.03329468942180284</v>
       </c>
       <c r="D13">
-        <v>0.01363336314184138</v>
+        <v>-0.02211339551058912</v>
       </c>
       <c r="E13">
-        <v>0.008256436916108993</v>
+        <v>0.01060000118513965</v>
       </c>
       <c r="F13">
-        <v>0.0002058520853028882</v>
+        <v>-0.04720347824149709</v>
       </c>
       <c r="G13">
-        <v>-0.03818687386486333</v>
+        <v>0.02646706575101163</v>
       </c>
       <c r="H13">
-        <v>0.04072857355119017</v>
+        <v>0.0338044966880029</v>
       </c>
       <c r="I13">
-        <v>-0.02652909730322036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.01303102776049164</v>
+      </c>
+      <c r="J13">
+        <v>-0.000192755590660899</v>
+      </c>
+      <c r="K13">
+        <v>-0.01248007084611457</v>
+      </c>
+      <c r="L13">
+        <v>-0.1166268252907639</v>
+      </c>
+      <c r="M13">
+        <v>0.0006489101529416028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.03998946360930115</v>
+        <v>0.04683253780233351</v>
       </c>
       <c r="C14">
-        <v>0.02251173232769867</v>
+        <v>-0.02856052353756676</v>
       </c>
       <c r="D14">
-        <v>0.01674535829756197</v>
+        <v>0.00943266726717416</v>
       </c>
       <c r="E14">
-        <v>0.005491989299659646</v>
+        <v>0.0170793551479858</v>
       </c>
       <c r="F14">
-        <v>0.04822632471948574</v>
+        <v>-0.04771984231030198</v>
       </c>
       <c r="G14">
-        <v>0.01018884249771354</v>
+        <v>0.01721910551070396</v>
       </c>
       <c r="H14">
-        <v>-0.04554231594246605</v>
+        <v>0.07747718586311422</v>
       </c>
       <c r="I14">
-        <v>0.03847355948577572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.001936656129012488</v>
+      </c>
+      <c r="J14">
+        <v>-0.03057136809961592</v>
+      </c>
+      <c r="K14">
+        <v>-0.03973862986162765</v>
+      </c>
+      <c r="L14">
+        <v>-0.05366761074829165</v>
+      </c>
+      <c r="M14">
+        <v>-0.02623847409479915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03624979738892155</v>
+        <v>0.03069658142453008</v>
       </c>
       <c r="C15">
-        <v>-0.002427170688822936</v>
+        <v>-0.009949121389461106</v>
       </c>
       <c r="D15">
-        <v>-0.005221403035398292</v>
+        <v>-0.05939161549964659</v>
       </c>
       <c r="E15">
-        <v>0.02420588574010359</v>
+        <v>0.007257093591558184</v>
       </c>
       <c r="F15">
-        <v>0.02450343514041703</v>
+        <v>-0.001127240887720272</v>
       </c>
       <c r="G15">
-        <v>-0.004307148667502145</v>
+        <v>-0.03828531508637301</v>
       </c>
       <c r="H15">
-        <v>0.01072193692452544</v>
+        <v>0.03866313961161399</v>
       </c>
       <c r="I15">
-        <v>0.005867250453778459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.03497980675892096</v>
+      </c>
+      <c r="J15">
+        <v>-0.02201222583614587</v>
+      </c>
+      <c r="K15">
+        <v>-0.04137261428619456</v>
+      </c>
+      <c r="L15">
+        <v>-0.04744255661368418</v>
+      </c>
+      <c r="M15">
+        <v>-0.0006505081979274825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04873899845783045</v>
+        <v>0.06956545548258285</v>
       </c>
       <c r="C16">
-        <v>0.08614586281949739</v>
+        <v>-0.07756019142266979</v>
       </c>
       <c r="D16">
-        <v>0.02895108106246836</v>
+        <v>0.02009541102350315</v>
       </c>
       <c r="E16">
-        <v>0.02198011454218667</v>
+        <v>0.01720731201706483</v>
       </c>
       <c r="F16">
-        <v>0.01346250644636163</v>
+        <v>-0.1062029323038419</v>
       </c>
       <c r="G16">
-        <v>-0.03152109023419999</v>
+        <v>0.02766146570715092</v>
       </c>
       <c r="H16">
-        <v>-0.006545534605097145</v>
+        <v>0.04915064040217396</v>
       </c>
       <c r="I16">
-        <v>-0.1023412973485943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.0669385037602951</v>
+      </c>
+      <c r="J16">
+        <v>0.04608141687037438</v>
+      </c>
+      <c r="K16">
+        <v>0.06936264348203246</v>
+      </c>
+      <c r="L16">
+        <v>-0.01261703365828732</v>
+      </c>
+      <c r="M16">
+        <v>0.03958329922539064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03939637564387821</v>
+        <v>0.04214908915810248</v>
       </c>
       <c r="C20">
-        <v>0.04230952385234556</v>
+        <v>-0.02988331097976524</v>
       </c>
       <c r="D20">
-        <v>0.01950766018240723</v>
+        <v>-0.02193097616996066</v>
       </c>
       <c r="E20">
-        <v>0.0111444682383491</v>
+        <v>0.0192583732656525</v>
       </c>
       <c r="F20">
-        <v>0.02647712391401567</v>
+        <v>-0.04886470914921083</v>
       </c>
       <c r="G20">
-        <v>-0.0297061829343827</v>
+        <v>0.01831519306423679</v>
       </c>
       <c r="H20">
-        <v>0.002668424743418809</v>
+        <v>0.06044984943115015</v>
       </c>
       <c r="I20">
-        <v>-0.03966480913927486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.03584031763247792</v>
+      </c>
+      <c r="J20">
+        <v>0.005224997215767271</v>
+      </c>
+      <c r="K20">
+        <v>-0.004648865098604593</v>
+      </c>
+      <c r="L20">
+        <v>-0.05576582933646951</v>
+      </c>
+      <c r="M20">
+        <v>0.03683499586283453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.00816177837593708</v>
+        <v>0.024761514849551</v>
       </c>
       <c r="C21">
-        <v>-0.004554049009161465</v>
+        <v>-0.0130928868308762</v>
       </c>
       <c r="D21">
-        <v>-0.007329583873542774</v>
+        <v>-0.01576516729316725</v>
       </c>
       <c r="E21">
-        <v>0.08563936570209633</v>
+        <v>0.01245669541610889</v>
       </c>
       <c r="F21">
-        <v>-0.01634631241637861</v>
+        <v>-0.05269467796240895</v>
       </c>
       <c r="G21">
-        <v>0.09707251739944082</v>
+        <v>-0.1020224452830836</v>
       </c>
       <c r="H21">
-        <v>0.03800260448278057</v>
+        <v>0.01646545142204039</v>
       </c>
       <c r="I21">
-        <v>0.05644015420632665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.034998328988437</v>
+      </c>
+      <c r="J21">
+        <v>-0.04855774070692914</v>
+      </c>
+      <c r="K21">
+        <v>-0.01082094873866971</v>
+      </c>
+      <c r="L21">
+        <v>-0.07234203383960464</v>
+      </c>
+      <c r="M21">
+        <v>0.03499299229464554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.02385611802668003</v>
+        <v>0.0425028375639834</v>
       </c>
       <c r="C22">
-        <v>0.04840990269166662</v>
+        <v>-0.03100169518673399</v>
       </c>
       <c r="D22">
-        <v>-0.1237947707412651</v>
+        <v>-0.6544522690755659</v>
       </c>
       <c r="E22">
-        <v>0.4751230250701496</v>
+        <v>0.05660223586392404</v>
       </c>
       <c r="F22">
-        <v>0.1908518557012908</v>
+        <v>0.07721052964897177</v>
       </c>
       <c r="G22">
-        <v>-0.0306314180911</v>
+        <v>0.06937623096484617</v>
       </c>
       <c r="H22">
-        <v>0.2751119571630872</v>
+        <v>-0.06464461997050445</v>
       </c>
       <c r="I22">
-        <v>-0.0277412562512031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.1038733098507832</v>
+      </c>
+      <c r="J22">
+        <v>-0.0701348175415986</v>
+      </c>
+      <c r="K22">
+        <v>0.03956828086643648</v>
+      </c>
+      <c r="L22">
+        <v>0.02297498632308696</v>
+      </c>
+      <c r="M22">
+        <v>-0.05079535341843231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.0247574671426732</v>
+        <v>0.04320439940527977</v>
       </c>
       <c r="C23">
-        <v>0.04712586666448086</v>
+        <v>-0.03124754748689863</v>
       </c>
       <c r="D23">
-        <v>-0.123329147555964</v>
+        <v>-0.6560796159597011</v>
       </c>
       <c r="E23">
-        <v>0.4765353844368928</v>
+        <v>0.0576254084070435</v>
       </c>
       <c r="F23">
-        <v>0.1875322126231473</v>
+        <v>0.07246257339005786</v>
       </c>
       <c r="G23">
-        <v>-0.02985599822530396</v>
+        <v>0.0694955493537936</v>
       </c>
       <c r="H23">
-        <v>0.2719287723119793</v>
+        <v>-0.06549235684329567</v>
       </c>
       <c r="I23">
-        <v>-0.02626835229951877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.1028041957068495</v>
+      </c>
+      <c r="J23">
+        <v>-0.0693266400843537</v>
+      </c>
+      <c r="K23">
+        <v>0.03463071625798499</v>
+      </c>
+      <c r="L23">
+        <v>0.02664845951902628</v>
+      </c>
+      <c r="M23">
+        <v>-0.05111815847304368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06802984786544047</v>
+        <v>0.07544742073810409</v>
       </c>
       <c r="C24">
-        <v>0.08128252864010069</v>
+        <v>-0.07507602928827352</v>
       </c>
       <c r="D24">
-        <v>0.04480584889266077</v>
+        <v>0.01782234800184844</v>
       </c>
       <c r="E24">
-        <v>0.03451456538430948</v>
+        <v>0.02088896499677028</v>
       </c>
       <c r="F24">
-        <v>-0.02003880603294061</v>
+        <v>-0.1106857689469112</v>
       </c>
       <c r="G24">
-        <v>-0.02045726997760652</v>
+        <v>0.01641430729162016</v>
       </c>
       <c r="H24">
-        <v>-0.001771660732099017</v>
+        <v>0.03618784974032929</v>
       </c>
       <c r="I24">
-        <v>-0.06071352457530556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.06070440763907705</v>
+      </c>
+      <c r="J24">
+        <v>0.03395912707502749</v>
+      </c>
+      <c r="K24">
+        <v>0.05497001541450244</v>
+      </c>
+      <c r="L24">
+        <v>0.01985444909125678</v>
+      </c>
+      <c r="M24">
+        <v>0.0674654156416645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.05969904707289973</v>
+        <v>0.07237632553923215</v>
       </c>
       <c r="C25">
-        <v>0.04079415271145378</v>
+        <v>-0.04823264175589601</v>
       </c>
       <c r="D25">
-        <v>0.03800671611279731</v>
+        <v>0.03120631757518979</v>
       </c>
       <c r="E25">
-        <v>0.03785305967074526</v>
+        <v>0.02059705245528376</v>
       </c>
       <c r="F25">
-        <v>-0.001331640344865551</v>
+        <v>-0.1132641302822494</v>
       </c>
       <c r="G25">
-        <v>-0.03562721574462367</v>
+        <v>0.03409616594804231</v>
       </c>
       <c r="H25">
-        <v>-0.03244977330883438</v>
+        <v>0.05132792877037839</v>
       </c>
       <c r="I25">
-        <v>-0.04163810719881449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.0716980519513758</v>
+      </c>
+      <c r="J25">
+        <v>0.04943503405798138</v>
+      </c>
+      <c r="K25">
+        <v>0.04925031723304225</v>
+      </c>
+      <c r="L25">
+        <v>0.0337248382559497</v>
+      </c>
+      <c r="M25">
+        <v>0.05847632013200149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.036388665893788</v>
+        <v>0.04138421710992014</v>
       </c>
       <c r="C26">
-        <v>0.02008230937736586</v>
+        <v>-0.02045807366327054</v>
       </c>
       <c r="D26">
-        <v>0.03983681950918078</v>
+        <v>-0.01183888662170936</v>
       </c>
       <c r="E26">
-        <v>-0.002503332089574408</v>
+        <v>0.001035326240100185</v>
       </c>
       <c r="F26">
-        <v>0.04235520446509734</v>
+        <v>-0.03627882857901663</v>
       </c>
       <c r="G26">
-        <v>-0.002006414312026394</v>
+        <v>-0.001203286749659579</v>
       </c>
       <c r="H26">
-        <v>0.02391085578475342</v>
+        <v>0.05430603825423035</v>
       </c>
       <c r="I26">
-        <v>-0.02387640338622009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.001650869526589041</v>
+      </c>
+      <c r="J26">
+        <v>-0.07965010477337015</v>
+      </c>
+      <c r="K26">
+        <v>-0.01090452890781488</v>
+      </c>
+      <c r="L26">
+        <v>-0.1265004331697076</v>
+      </c>
+      <c r="M26">
+        <v>-0.03292087696966831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.119553336426581</v>
+        <v>0.1443804010922061</v>
       </c>
       <c r="C28">
-        <v>-0.2964252673895115</v>
+        <v>0.2876032332567918</v>
       </c>
       <c r="D28">
-        <v>0.03022122641838723</v>
+        <v>0.006858154729591848</v>
       </c>
       <c r="E28">
-        <v>-0.01075166242840958</v>
+        <v>0.02456445534061453</v>
       </c>
       <c r="F28">
-        <v>0.03201187860920351</v>
+        <v>0.004632862092453153</v>
       </c>
       <c r="G28">
-        <v>0.0643382385966749</v>
+        <v>-0.01837091363312512</v>
       </c>
       <c r="H28">
-        <v>-0.01684379858730612</v>
+        <v>-0.01028427147877566</v>
       </c>
       <c r="I28">
-        <v>-0.074591265075796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01492332470139401</v>
+      </c>
+      <c r="J28">
+        <v>0.01137765603274031</v>
+      </c>
+      <c r="K28">
+        <v>-0.002796710694189759</v>
+      </c>
+      <c r="L28">
+        <v>-0.05820211124680592</v>
+      </c>
+      <c r="M28">
+        <v>-0.04668992201146247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04592859861747004</v>
+        <v>0.04468516080211673</v>
       </c>
       <c r="C29">
-        <v>0.01410547455234597</v>
+        <v>-0.02343485920847549</v>
       </c>
       <c r="D29">
-        <v>0.009478199169479987</v>
+        <v>0.0002330632753822227</v>
       </c>
       <c r="E29">
-        <v>0.02956767761804275</v>
+        <v>0.01985580593649087</v>
       </c>
       <c r="F29">
-        <v>0.03262861409764074</v>
+        <v>-0.04853983859645566</v>
       </c>
       <c r="G29">
-        <v>-0.005395032542187405</v>
+        <v>0.0320218689486742</v>
       </c>
       <c r="H29">
-        <v>-0.02032984065755668</v>
+        <v>0.06439480244672945</v>
       </c>
       <c r="I29">
-        <v>-0.002251804152736493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.003812601445881545</v>
+      </c>
+      <c r="J29">
+        <v>-0.02926656746555527</v>
+      </c>
+      <c r="K29">
+        <v>-0.02797569223630089</v>
+      </c>
+      <c r="L29">
+        <v>-0.033457933549482</v>
+      </c>
+      <c r="M29">
+        <v>-0.01467836121176506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1194254682845046</v>
+        <v>0.09972678552545912</v>
       </c>
       <c r="C30">
-        <v>0.07309042101351018</v>
+        <v>-0.06563516203977439</v>
       </c>
       <c r="D30">
-        <v>0.07418651500065639</v>
+        <v>0.001835667274567952</v>
       </c>
       <c r="E30">
-        <v>0.04948436929975292</v>
+        <v>0.03287129375101371</v>
       </c>
       <c r="F30">
-        <v>0.0308960042836782</v>
+        <v>-0.1672322850839586</v>
       </c>
       <c r="G30">
-        <v>0.02615331274374059</v>
+        <v>0.04556975985686068</v>
       </c>
       <c r="H30">
-        <v>-0.006284646254016544</v>
+        <v>0.03112994864535392</v>
       </c>
       <c r="I30">
-        <v>-0.07339431380104099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2727094748162456</v>
+      </c>
+      <c r="J30">
+        <v>-0.0307296864214854</v>
+      </c>
+      <c r="K30">
+        <v>-0.01486867641221673</v>
+      </c>
+      <c r="L30">
+        <v>-0.2737082439758732</v>
+      </c>
+      <c r="M30">
+        <v>-0.1346266606420147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04797173590633535</v>
+        <v>0.03504842214501395</v>
       </c>
       <c r="C31">
-        <v>0.02474678775447274</v>
+        <v>-0.04449163918319548</v>
       </c>
       <c r="D31">
-        <v>0.006474853957696337</v>
+        <v>-0.006243071844218588</v>
       </c>
       <c r="E31">
-        <v>-0.005591310079190883</v>
+        <v>-0.003222864237370171</v>
       </c>
       <c r="F31">
-        <v>0.03732607840654147</v>
+        <v>-0.01507470132851828</v>
       </c>
       <c r="G31">
-        <v>-0.02083140260201188</v>
+        <v>0.03156911526934141</v>
       </c>
       <c r="H31">
-        <v>0.03096446743077811</v>
+        <v>0.05017674984911754</v>
       </c>
       <c r="I31">
-        <v>0.003127475283448261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.01648355785349248</v>
+      </c>
+      <c r="J31">
+        <v>0.02084553323230615</v>
+      </c>
+      <c r="K31">
+        <v>-0.01074319704962889</v>
+      </c>
+      <c r="L31">
+        <v>-0.02215842804028097</v>
+      </c>
+      <c r="M31">
+        <v>0.02096460273246006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02533483109356764</v>
+        <v>0.04797636289260172</v>
       </c>
       <c r="C32">
-        <v>-0.004260298058202432</v>
+        <v>0.003308586545894162</v>
       </c>
       <c r="D32">
-        <v>-0.04317643295264235</v>
+        <v>-0.003166424006248252</v>
       </c>
       <c r="E32">
-        <v>0.07223772913689241</v>
+        <v>-0.004085728370325886</v>
       </c>
       <c r="F32">
-        <v>0.0009255692280429378</v>
+        <v>-0.08382927585703825</v>
       </c>
       <c r="G32">
-        <v>-0.03507737672076799</v>
+        <v>-0.02482335254170471</v>
       </c>
       <c r="H32">
-        <v>0.04706370437199011</v>
+        <v>0.03372948151859406</v>
       </c>
       <c r="I32">
-        <v>-0.09105754608972313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.06763008217994028</v>
+      </c>
+      <c r="J32">
+        <v>0.0274211895828159</v>
+      </c>
+      <c r="K32">
+        <v>0.03502533486704767</v>
+      </c>
+      <c r="L32">
+        <v>-0.06268415096242093</v>
+      </c>
+      <c r="M32">
+        <v>-0.09843710933961752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09951814424954245</v>
+        <v>0.09540662229466933</v>
       </c>
       <c r="C33">
-        <v>0.05957803916013717</v>
+        <v>-0.06635806899538921</v>
       </c>
       <c r="D33">
-        <v>0.00967785837525601</v>
+        <v>0.008758921081155982</v>
       </c>
       <c r="E33">
-        <v>-0.0006974530010303518</v>
+        <v>-0.01559327480049548</v>
       </c>
       <c r="F33">
-        <v>0.0297418636991627</v>
+        <v>-0.06375888869118736</v>
       </c>
       <c r="G33">
-        <v>-0.03753518706054803</v>
+        <v>0.03009489179913084</v>
       </c>
       <c r="H33">
-        <v>0.01844325468841121</v>
+        <v>0.06387156975166466</v>
       </c>
       <c r="I33">
-        <v>-0.03276858021431773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.01662410845692123</v>
+      </c>
+      <c r="J33">
+        <v>-0.03756527831488935</v>
+      </c>
+      <c r="K33">
+        <v>-0.02099112900103561</v>
+      </c>
+      <c r="L33">
+        <v>-0.02351552217395302</v>
+      </c>
+      <c r="M33">
+        <v>0.02709169570676381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05041083521289203</v>
+        <v>0.06320046734135785</v>
       </c>
       <c r="C34">
-        <v>0.0792058354176951</v>
+        <v>-0.06345811819551204</v>
       </c>
       <c r="D34">
-        <v>0.025072161246668</v>
+        <v>0.02792592303801137</v>
       </c>
       <c r="E34">
-        <v>0.03980778398055512</v>
+        <v>0.01318698091011395</v>
       </c>
       <c r="F34">
-        <v>0.0009610987535604953</v>
+        <v>-0.09739021184905457</v>
       </c>
       <c r="G34">
-        <v>-0.02000945266915689</v>
+        <v>0.02005033289910201</v>
       </c>
       <c r="H34">
-        <v>-0.008247625899183368</v>
+        <v>0.05159289360130614</v>
       </c>
       <c r="I34">
-        <v>-0.05526870736488077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.04348736590820394</v>
+      </c>
+      <c r="J34">
+        <v>0.03112913906617588</v>
+      </c>
+      <c r="K34">
+        <v>0.04188903963828658</v>
+      </c>
+      <c r="L34">
+        <v>0.01417435049003796</v>
+      </c>
+      <c r="M34">
+        <v>0.07208365577984246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03836686748308826</v>
+        <v>0.02906092620974375</v>
       </c>
       <c r="C35">
-        <v>0.02581453572582617</v>
+        <v>-0.02661065195746711</v>
       </c>
       <c r="D35">
-        <v>0.01206393328954132</v>
+        <v>-0.0005450527724506291</v>
       </c>
       <c r="E35">
-        <v>0.0238194014330991</v>
+        <v>6.871167439513568e-06</v>
       </c>
       <c r="F35">
-        <v>0.02086647860954344</v>
+        <v>-0.0213983884098056</v>
       </c>
       <c r="G35">
-        <v>-0.02462824294894146</v>
+        <v>0.02227236943253542</v>
       </c>
       <c r="H35">
-        <v>0.0324670587310989</v>
+        <v>0.04753046252251916</v>
       </c>
       <c r="I35">
-        <v>-0.04257784046488715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.04292189596532605</v>
+      </c>
+      <c r="J35">
+        <v>-0.007757775232044205</v>
+      </c>
+      <c r="K35">
+        <v>0.03380055951787186</v>
+      </c>
+      <c r="L35">
+        <v>-0.0441776397862324</v>
+      </c>
+      <c r="M35">
+        <v>0.0007973567479258253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02661669009785142</v>
+        <v>0.02945885940651117</v>
       </c>
       <c r="C36">
-        <v>0.01298997282806482</v>
+        <v>-0.01751852494950236</v>
       </c>
       <c r="D36">
-        <v>0.02971325383444219</v>
+        <v>-0.01235580131595352</v>
       </c>
       <c r="E36">
-        <v>0.02235366041845264</v>
+        <v>0.01672895425152309</v>
       </c>
       <c r="F36">
-        <v>0.02356690770526948</v>
+        <v>-0.0547310949594527</v>
       </c>
       <c r="G36">
-        <v>-0.02081413552165673</v>
+        <v>0.01203661384327284</v>
       </c>
       <c r="H36">
-        <v>0.0091174476809109</v>
+        <v>0.05297945071749965</v>
       </c>
       <c r="I36">
-        <v>0.004876787158092958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.02487954996442732</v>
+      </c>
+      <c r="J36">
+        <v>-0.02531212757393221</v>
+      </c>
+      <c r="K36">
+        <v>-0.01443647731233461</v>
+      </c>
+      <c r="L36">
+        <v>-0.0475263756941023</v>
+      </c>
+      <c r="M36">
+        <v>0.02969944227469758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04257908130852504</v>
+        <v>0.0324135751837519</v>
       </c>
       <c r="C38">
-        <v>0.02882264477262274</v>
+        <v>-0.04757062760003199</v>
       </c>
       <c r="D38">
-        <v>-0.02799932982115423</v>
+        <v>-0.0249796144164415</v>
       </c>
       <c r="E38">
-        <v>0.04110646909783278</v>
+        <v>-0.001291787871168426</v>
       </c>
       <c r="F38">
-        <v>-0.00131164636480434</v>
+        <v>0.04133756868655966</v>
       </c>
       <c r="G38">
-        <v>-0.004273544320964336</v>
+        <v>0.04945505124770683</v>
       </c>
       <c r="H38">
-        <v>0.04161794702389813</v>
+        <v>-0.05830209766004139</v>
       </c>
       <c r="I38">
-        <v>-0.04688954750747536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.01294850900931608</v>
+      </c>
+      <c r="J38">
+        <v>-0.1169042639337083</v>
+      </c>
+      <c r="K38">
+        <v>0.01956077975650378</v>
+      </c>
+      <c r="L38">
+        <v>-0.08505115993478159</v>
+      </c>
+      <c r="M38">
+        <v>-0.09687539452121352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09550954834924272</v>
+        <v>0.09533520409251887</v>
       </c>
       <c r="C39">
-        <v>0.1064317805489063</v>
+        <v>-0.08659334450731106</v>
       </c>
       <c r="D39">
-        <v>0.02184117901714336</v>
+        <v>0.07932739096353636</v>
       </c>
       <c r="E39">
-        <v>0.02371079167689288</v>
+        <v>-0.0162356383439225</v>
       </c>
       <c r="F39">
-        <v>-0.03811316607069461</v>
+        <v>-0.1465481072918292</v>
       </c>
       <c r="G39">
-        <v>-0.008954266991487936</v>
+        <v>0.09055508399773554</v>
       </c>
       <c r="H39">
-        <v>-0.01618604124905342</v>
+        <v>0.01975649239494897</v>
       </c>
       <c r="I39">
-        <v>-0.1741486227216455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1497979647357772</v>
+      </c>
+      <c r="J39">
+        <v>0.1095077158052772</v>
+      </c>
+      <c r="K39">
+        <v>0.1587553754382281</v>
+      </c>
+      <c r="L39">
+        <v>-0.02899773409437974</v>
+      </c>
+      <c r="M39">
+        <v>-0.02380503402838489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05743060770971888</v>
+        <v>0.03836630890880525</v>
       </c>
       <c r="C40">
-        <v>0.03783191160394365</v>
+        <v>-0.05638813081315108</v>
       </c>
       <c r="D40">
-        <v>-0.03144144581537366</v>
+        <v>-0.05061529182046269</v>
       </c>
       <c r="E40">
-        <v>0.1438022207681708</v>
+        <v>-1.147499350319256e-05</v>
       </c>
       <c r="F40">
-        <v>0.02723260809228302</v>
+        <v>-0.1286318543264695</v>
       </c>
       <c r="G40">
-        <v>-0.0491979271220089</v>
+        <v>-0.05701126480546374</v>
       </c>
       <c r="H40">
-        <v>0.01640829007097342</v>
+        <v>0.01807943136390389</v>
       </c>
       <c r="I40">
-        <v>-0.175830907623419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.002255930468447544</v>
+      </c>
+      <c r="J40">
+        <v>-0.1242202259849727</v>
+      </c>
+      <c r="K40">
+        <v>0.08239001430299632</v>
+      </c>
+      <c r="L40">
+        <v>-0.0997386080051719</v>
+      </c>
+      <c r="M40">
+        <v>-0.01568028877088942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04098280209644382</v>
+        <v>0.03528419705436682</v>
       </c>
       <c r="C41">
-        <v>0.05243243412572843</v>
+        <v>-0.03610382593108565</v>
       </c>
       <c r="D41">
-        <v>0.007065524979698432</v>
+        <v>0.01840830277197877</v>
       </c>
       <c r="E41">
-        <v>0.003377439019728481</v>
+        <v>-0.003718984163156765</v>
       </c>
       <c r="F41">
-        <v>0.01514340568745146</v>
+        <v>-0.01731614507745403</v>
       </c>
       <c r="G41">
-        <v>-0.02557798323517951</v>
+        <v>0.02586070949144457</v>
       </c>
       <c r="H41">
-        <v>0.01475084548684446</v>
+        <v>0.003526760554427718</v>
       </c>
       <c r="I41">
-        <v>-0.0587134709500907</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01146606273734199</v>
+      </c>
+      <c r="J41">
+        <v>-0.01091241585041898</v>
+      </c>
+      <c r="K41">
+        <v>0.01407590518314123</v>
+      </c>
+      <c r="L41">
+        <v>-0.04228575306711402</v>
+      </c>
+      <c r="M41">
+        <v>0.01334021856048404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05305388913848588</v>
+        <v>0.05103819847537754</v>
       </c>
       <c r="C43">
-        <v>0.03856052350675021</v>
+        <v>-0.04816361728360644</v>
       </c>
       <c r="D43">
-        <v>0.02491239674639928</v>
+        <v>-0.01159907094010061</v>
       </c>
       <c r="E43">
-        <v>0.02335613395092749</v>
+        <v>0.0132535550904162</v>
       </c>
       <c r="F43">
-        <v>0.01302309065313812</v>
+        <v>-0.01806132765481418</v>
       </c>
       <c r="G43">
-        <v>-0.004616083020576821</v>
+        <v>0.05903353843044656</v>
       </c>
       <c r="H43">
-        <v>0.05589807018297065</v>
+        <v>-0.003948278513084292</v>
       </c>
       <c r="I43">
-        <v>-0.005004061703530103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.007291077292089919</v>
+      </c>
+      <c r="J43">
+        <v>0.005649791594938471</v>
+      </c>
+      <c r="K43">
+        <v>0.009471382411864356</v>
+      </c>
+      <c r="L43">
+        <v>-0.03492246272272772</v>
+      </c>
+      <c r="M43">
+        <v>0.02727781926284875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05080364104733603</v>
+        <v>0.08201188048988262</v>
       </c>
       <c r="C44">
-        <v>0.02014509151393903</v>
+        <v>-0.06024737540305045</v>
       </c>
       <c r="D44">
-        <v>0.06086111988103531</v>
+        <v>-0.06539748942358581</v>
       </c>
       <c r="E44">
-        <v>0.1277122755836572</v>
+        <v>0.09190418534370229</v>
       </c>
       <c r="F44">
-        <v>0.001382878989048777</v>
+        <v>-0.1651393547709721</v>
       </c>
       <c r="G44">
-        <v>-0.02234959612704027</v>
+        <v>0.00974204664780806</v>
       </c>
       <c r="H44">
-        <v>-0.0310382941893222</v>
+        <v>0.0916872811776392</v>
       </c>
       <c r="I44">
-        <v>-0.1018339908754443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.04164705263368117</v>
+      </c>
+      <c r="J44">
+        <v>-0.02240267111210829</v>
+      </c>
+      <c r="K44">
+        <v>0.03827147808404966</v>
+      </c>
+      <c r="L44">
+        <v>-0.04699596786065097</v>
+      </c>
+      <c r="M44">
+        <v>-0.02732739645061585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01941684247706952</v>
+        <v>0.03587350830311248</v>
       </c>
       <c r="C46">
-        <v>0.03713564298251487</v>
+        <v>-0.04046024347878364</v>
       </c>
       <c r="D46">
-        <v>0.01441056964192469</v>
+        <v>-0.04425431061486688</v>
       </c>
       <c r="E46">
-        <v>0.04848558190828113</v>
+        <v>0.03518605812895686</v>
       </c>
       <c r="F46">
-        <v>0.008254244546262165</v>
+        <v>-0.02567344202942258</v>
       </c>
       <c r="G46">
-        <v>-0.002059849070904488</v>
+        <v>-0.0110589365059076</v>
       </c>
       <c r="H46">
-        <v>-0.006587667700327247</v>
+        <v>0.06915265782766289</v>
       </c>
       <c r="I46">
-        <v>-0.03135593107904857</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.02056305107451662</v>
+      </c>
+      <c r="J46">
+        <v>-0.05331387616323758</v>
+      </c>
+      <c r="K46">
+        <v>-0.03404441020595902</v>
+      </c>
+      <c r="L46">
+        <v>-0.04646568419977706</v>
+      </c>
+      <c r="M46">
+        <v>0.0008666953415790916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02929040792523799</v>
+        <v>0.04577573465258297</v>
       </c>
       <c r="C47">
-        <v>0.002008852829224223</v>
+        <v>-0.02957139681418453</v>
       </c>
       <c r="D47">
-        <v>-0.006639340531552762</v>
+        <v>-0.02055752404768508</v>
       </c>
       <c r="E47">
-        <v>0.07147942716194795</v>
+        <v>0.006929947362075619</v>
       </c>
       <c r="F47">
-        <v>0.02483886592055343</v>
+        <v>-0.03189736183350961</v>
       </c>
       <c r="G47">
-        <v>-0.02776187078642552</v>
+        <v>0.02830357559403564</v>
       </c>
       <c r="H47">
-        <v>0.007480014707998038</v>
+        <v>0.02994466181864804</v>
       </c>
       <c r="I47">
-        <v>0.03983037098188046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.022528563014135</v>
+      </c>
+      <c r="J47">
+        <v>-0.04089872622534216</v>
+      </c>
+      <c r="K47">
+        <v>-0.02250816106258427</v>
+      </c>
+      <c r="L47">
+        <v>-0.02116953405644064</v>
+      </c>
+      <c r="M47">
+        <v>0.05076686359459175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03392136508338644</v>
+        <v>0.04266362818199478</v>
       </c>
       <c r="C48">
-        <v>0.02358752661999333</v>
+        <v>-0.0186418174269673</v>
       </c>
       <c r="D48">
-        <v>0.007726990598997376</v>
+        <v>-0.01359020660298329</v>
       </c>
       <c r="E48">
-        <v>0.04448301770614577</v>
+        <v>0.003648313043222158</v>
       </c>
       <c r="F48">
-        <v>0.03315215473165669</v>
+        <v>-0.05764324578941708</v>
       </c>
       <c r="G48">
-        <v>-0.02131286412048162</v>
+        <v>-0.01944299860597595</v>
       </c>
       <c r="H48">
-        <v>0.04615948826507456</v>
+        <v>0.06240190052194841</v>
       </c>
       <c r="I48">
-        <v>-0.01009048807807634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.0207501985350186</v>
+      </c>
+      <c r="J48">
+        <v>-0.004863803386604251</v>
+      </c>
+      <c r="K48">
+        <v>0.01499015287627129</v>
+      </c>
+      <c r="L48">
+        <v>-0.05299622031799038</v>
+      </c>
+      <c r="M48">
+        <v>0.04107096644237904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1876341005531378</v>
+        <v>0.2229025080033728</v>
       </c>
       <c r="C49">
-        <v>0.1284723396755759</v>
+        <v>-0.08786656677165479</v>
       </c>
       <c r="D49">
-        <v>0.08241079770445622</v>
+        <v>0.06688014729304338</v>
       </c>
       <c r="E49">
-        <v>-0.07391139817339273</v>
+        <v>0.02849194170184342</v>
       </c>
       <c r="F49">
-        <v>-0.007358173986050365</v>
+        <v>0.2307172586088123</v>
       </c>
       <c r="G49">
-        <v>0.1926140597316926</v>
+        <v>-0.1543743131284629</v>
       </c>
       <c r="H49">
-        <v>-0.05256304645373785</v>
+        <v>-0.05923731567594527</v>
       </c>
       <c r="I49">
-        <v>0.01766357299321033</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.1135364592463731</v>
+      </c>
+      <c r="J49">
+        <v>-0.01518755340905544</v>
+      </c>
+      <c r="K49">
+        <v>0.1678635327353118</v>
+      </c>
+      <c r="L49">
+        <v>0.1685262008892444</v>
+      </c>
+      <c r="M49">
+        <v>0.001868508866205956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05472165109916919</v>
+        <v>0.04381931619682878</v>
       </c>
       <c r="C50">
-        <v>0.03195583041726617</v>
+        <v>-0.04318423463330622</v>
       </c>
       <c r="D50">
-        <v>0.00974310304963498</v>
+        <v>-0.001288515760893842</v>
       </c>
       <c r="E50">
-        <v>0.02084620085347792</v>
+        <v>-0.00840135475157433</v>
       </c>
       <c r="F50">
-        <v>0.05424902880434063</v>
+        <v>-0.03972581262819162</v>
       </c>
       <c r="G50">
-        <v>-0.05031636555020171</v>
+        <v>0.03677366861810741</v>
       </c>
       <c r="H50">
-        <v>-0.002172038633370345</v>
+        <v>0.05021911094802956</v>
       </c>
       <c r="I50">
-        <v>0.01735042616502526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.002899215530488033</v>
+      </c>
+      <c r="J50">
+        <v>-0.01326516084165621</v>
+      </c>
+      <c r="K50">
+        <v>-0.04665482742731709</v>
+      </c>
+      <c r="L50">
+        <v>-0.02633634142373726</v>
+      </c>
+      <c r="M50">
+        <v>-0.03734659852866427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02464572148291585</v>
+        <v>0.03052846486743521</v>
       </c>
       <c r="C51">
-        <v>0.01050363255835803</v>
+        <v>-0.005313791434488946</v>
       </c>
       <c r="D51">
-        <v>-0.006905342257270312</v>
+        <v>0.002282556442394841</v>
       </c>
       <c r="E51">
-        <v>0.0135877050702078</v>
+        <v>0.01709088498825315</v>
       </c>
       <c r="F51">
-        <v>-0.01665946246467923</v>
+        <v>0.01706112879683835</v>
       </c>
       <c r="G51">
-        <v>0.01900820508784354</v>
+        <v>0.004096807324949417</v>
       </c>
       <c r="H51">
-        <v>-0.02318467811597436</v>
+        <v>-0.02993515121817854</v>
       </c>
       <c r="I51">
-        <v>-0.02475575673550046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.02382002720307884</v>
+      </c>
+      <c r="J51">
+        <v>0.03713896538269974</v>
+      </c>
+      <c r="K51">
+        <v>0.04963138608265818</v>
+      </c>
+      <c r="L51">
+        <v>0.06064601111948684</v>
+      </c>
+      <c r="M51">
+        <v>0.02703709481133061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.008672206814336616</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.001642793134047699</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01586542519176328</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0009109163933166739</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.004659311150945236</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.004195137172323854</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.005806823722870541</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.004267795448276034</v>
+      </c>
+      <c r="J52">
+        <v>0.02699937733657676</v>
+      </c>
+      <c r="K52">
+        <v>0.0056350562646895</v>
+      </c>
+      <c r="L52">
+        <v>0.0034138150464146</v>
+      </c>
+      <c r="M52">
+        <v>-0.01032380678176757</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1669761924434059</v>
+        <v>0.1542834308631149</v>
       </c>
       <c r="C53">
-        <v>0.01943751620759376</v>
+        <v>-0.04903727678068309</v>
       </c>
       <c r="D53">
-        <v>0.03929832865170207</v>
+        <v>0.01895569293890872</v>
       </c>
       <c r="E53">
-        <v>-0.06915336422285952</v>
+        <v>-0.007214537670200602</v>
       </c>
       <c r="F53">
-        <v>-0.02702229601026117</v>
+        <v>0.06898123770947258</v>
       </c>
       <c r="G53">
-        <v>-0.2670629042262894</v>
+        <v>0.2093336349887119</v>
       </c>
       <c r="H53">
-        <v>0.01244953807377597</v>
+        <v>0.02982236294754771</v>
       </c>
       <c r="I53">
-        <v>0.02898489161007702</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1173559885835259</v>
+      </c>
+      <c r="J53">
+        <v>-0.02451620673727044</v>
+      </c>
+      <c r="K53">
+        <v>-0.08933828199565162</v>
+      </c>
+      <c r="L53">
+        <v>0.07385053769242987</v>
+      </c>
+      <c r="M53">
+        <v>-0.09672514308377522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04913459288860761</v>
+        <v>0.05644019504800549</v>
       </c>
       <c r="C54">
-        <v>0.03285643998999031</v>
+        <v>-0.03159500130495649</v>
       </c>
       <c r="D54">
-        <v>0.03365273206157164</v>
+        <v>-0.01953907372395013</v>
       </c>
       <c r="E54">
-        <v>0.03006777244805236</v>
+        <v>0.0243463349333555</v>
       </c>
       <c r="F54">
-        <v>0.02174649652135644</v>
+        <v>-0.1023338712487002</v>
       </c>
       <c r="G54">
-        <v>-0.01094014636617652</v>
+        <v>-0.02896163670816977</v>
       </c>
       <c r="H54">
-        <v>0.02399694332068811</v>
+        <v>0.08590229233126649</v>
       </c>
       <c r="I54">
-        <v>-0.01025758874595239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.03063030108103155</v>
+      </c>
+      <c r="J54">
+        <v>-0.01347783231169096</v>
+      </c>
+      <c r="K54">
+        <v>-0.06866723426988727</v>
+      </c>
+      <c r="L54">
+        <v>-0.09421545846485067</v>
+      </c>
+      <c r="M54">
+        <v>0.02954101071028481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.0931888861755524</v>
+        <v>0.08650512884817402</v>
       </c>
       <c r="C55">
-        <v>0.008227817496046575</v>
+        <v>-0.03832932509769418</v>
       </c>
       <c r="D55">
-        <v>0.03320652634927625</v>
+        <v>0.02588994958348434</v>
       </c>
       <c r="E55">
-        <v>-0.007110440375648838</v>
+        <v>0.007846044710711165</v>
       </c>
       <c r="F55">
-        <v>0.001865657331921787</v>
+        <v>-0.004710787621453044</v>
       </c>
       <c r="G55">
-        <v>-0.2334122589171958</v>
+        <v>0.1529600305815972</v>
       </c>
       <c r="H55">
-        <v>-0.00378363913937519</v>
+        <v>0.04121169353950051</v>
       </c>
       <c r="I55">
-        <v>0.03168556271223138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.06899696961223384</v>
+      </c>
+      <c r="J55">
+        <v>-0.01881119831388669</v>
+      </c>
+      <c r="K55">
+        <v>-0.05491268808686509</v>
+      </c>
+      <c r="L55">
+        <v>0.04966166899856575</v>
+      </c>
+      <c r="M55">
+        <v>-0.04973689699426744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1703102737711104</v>
+        <v>0.1470281901826756</v>
       </c>
       <c r="C56">
-        <v>0.01872280894656283</v>
+        <v>-0.06936190051153981</v>
       </c>
       <c r="D56">
-        <v>0.06334020647965825</v>
+        <v>0.03084190630037169</v>
       </c>
       <c r="E56">
-        <v>-0.06777196818856961</v>
+        <v>0.008137437714952279</v>
       </c>
       <c r="F56">
-        <v>-0.03215418852385128</v>
+        <v>0.03667165825509365</v>
       </c>
       <c r="G56">
-        <v>-0.2352169759123963</v>
+        <v>0.2208635240076444</v>
       </c>
       <c r="H56">
-        <v>0.04877007273432832</v>
+        <v>-0.001963150893178658</v>
       </c>
       <c r="I56">
-        <v>0.05843279303925004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1359238911740186</v>
+      </c>
+      <c r="J56">
+        <v>-0.03262908495806183</v>
+      </c>
+      <c r="K56">
+        <v>-0.0638750453555471</v>
+      </c>
+      <c r="L56">
+        <v>0.04400978736163755</v>
+      </c>
+      <c r="M56">
+        <v>-0.05833118703968275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04945694858804903</v>
+        <v>0.03948263567995212</v>
       </c>
       <c r="C58">
-        <v>0.04041716504460482</v>
+        <v>-0.0332869461304296</v>
       </c>
       <c r="D58">
-        <v>0.03796535146664939</v>
+        <v>-0.08361371959864004</v>
       </c>
       <c r="E58">
-        <v>0.3095164719340524</v>
+        <v>0.03359879211222982</v>
       </c>
       <c r="F58">
-        <v>0.1595585286557192</v>
+        <v>-0.03730324792464901</v>
       </c>
       <c r="G58">
-        <v>0.1433192784678689</v>
+        <v>-0.05357297181679437</v>
       </c>
       <c r="H58">
-        <v>-0.008508763753666729</v>
+        <v>0.09376119099921525</v>
       </c>
       <c r="I58">
-        <v>0.07652867364866758</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2784696970021102</v>
+      </c>
+      <c r="J58">
+        <v>0.2230009327745799</v>
+      </c>
+      <c r="K58">
+        <v>0.03152574029968062</v>
+      </c>
+      <c r="L58">
+        <v>-0.01912308773932501</v>
+      </c>
+      <c r="M58">
+        <v>0.3835602672661572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2508807947088657</v>
+        <v>0.2306183010689923</v>
       </c>
       <c r="C59">
-        <v>-0.4066468636203194</v>
+        <v>0.3011997581229498</v>
       </c>
       <c r="D59">
-        <v>0.03235008551371051</v>
+        <v>0.0370951255002907</v>
       </c>
       <c r="E59">
-        <v>0.02241318936038586</v>
+        <v>0.004620388743261372</v>
       </c>
       <c r="F59">
-        <v>-0.08013783243281532</v>
+        <v>-0.02689485370722679</v>
       </c>
       <c r="G59">
-        <v>-0.03359387332695272</v>
+        <v>0.06422436031063847</v>
       </c>
       <c r="H59">
-        <v>0.01774744853451839</v>
+        <v>-0.04003791556200081</v>
       </c>
       <c r="I59">
-        <v>-0.0626022873230411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1076771843068928</v>
+      </c>
+      <c r="J59">
+        <v>0.05608699142949984</v>
+      </c>
+      <c r="K59">
+        <v>0.0454902236818957</v>
+      </c>
+      <c r="L59">
+        <v>0.04073668520697917</v>
+      </c>
+      <c r="M59">
+        <v>0.02220305156735826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2440585438028794</v>
+        <v>0.2411304404402619</v>
       </c>
       <c r="C60">
-        <v>0.07750282311631826</v>
+        <v>-0.1184275763047054</v>
       </c>
       <c r="D60">
-        <v>0.09228234324167919</v>
+        <v>0.06648407781009737</v>
       </c>
       <c r="E60">
-        <v>0.01967769955383926</v>
+        <v>0.0412058588756985</v>
       </c>
       <c r="F60">
-        <v>-0.02655818872280511</v>
+        <v>0.1100194317532728</v>
       </c>
       <c r="G60">
-        <v>0.07590007147679312</v>
+        <v>-0.03424884228429736</v>
       </c>
       <c r="H60">
-        <v>-0.06857123203056729</v>
+        <v>-0.1249220601676722</v>
       </c>
       <c r="I60">
-        <v>0.1044896310603318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.0228765928317681</v>
+      </c>
+      <c r="J60">
+        <v>0.01031296382582226</v>
+      </c>
+      <c r="K60">
+        <v>-0.08889549456511861</v>
+      </c>
+      <c r="L60">
+        <v>0.1633709637021949</v>
+      </c>
+      <c r="M60">
+        <v>-0.01984775728762495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07905432118016342</v>
+        <v>0.08886351109670985</v>
       </c>
       <c r="C61">
-        <v>0.05963810668686099</v>
+        <v>-0.06203539776787906</v>
       </c>
       <c r="D61">
-        <v>0.02224989180559834</v>
+        <v>0.04376656267540276</v>
       </c>
       <c r="E61">
-        <v>0.003838422716112064</v>
+        <v>0.01337336239753515</v>
       </c>
       <c r="F61">
-        <v>0.01348881230475463</v>
+        <v>-0.1100382088747681</v>
       </c>
       <c r="G61">
-        <v>-0.01336050753335044</v>
+        <v>0.07361509563080912</v>
       </c>
       <c r="H61">
-        <v>-0.002063134599890508</v>
+        <v>0.03844890153760367</v>
       </c>
       <c r="I61">
-        <v>-0.08989301074046364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05681847776893019</v>
+      </c>
+      <c r="J61">
+        <v>0.03889965723296458</v>
+      </c>
+      <c r="K61">
+        <v>0.07524271746463825</v>
+      </c>
+      <c r="L61">
+        <v>-0.04003783054680449</v>
+      </c>
+      <c r="M61">
+        <v>-0.01579317713821866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1655922895516716</v>
+        <v>0.1459981941524215</v>
       </c>
       <c r="C62">
-        <v>0.05641045365534712</v>
+        <v>-0.07856094122193928</v>
       </c>
       <c r="D62">
-        <v>0.0304171381370581</v>
+        <v>0.03222084515402551</v>
       </c>
       <c r="E62">
-        <v>-0.1091661411701572</v>
+        <v>-0.0229264335532128</v>
       </c>
       <c r="F62">
-        <v>-0.05387309094592668</v>
+        <v>0.02286387000076691</v>
       </c>
       <c r="G62">
-        <v>-0.2413273572064983</v>
+        <v>0.1636016769448175</v>
       </c>
       <c r="H62">
-        <v>0.01971291501874823</v>
+        <v>0.04359572340652382</v>
       </c>
       <c r="I62">
-        <v>-0.0183099220751538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1298003167026149</v>
+      </c>
+      <c r="J62">
+        <v>-0.1078949077092528</v>
+      </c>
+      <c r="K62">
+        <v>-0.1025558230704399</v>
+      </c>
+      <c r="L62">
+        <v>0.05818730689360094</v>
+      </c>
+      <c r="M62">
+        <v>-0.07752678873559865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04480896524898885</v>
+        <v>0.04489956979654626</v>
       </c>
       <c r="C63">
-        <v>0.03548913208549187</v>
+        <v>-0.02603877169818447</v>
       </c>
       <c r="D63">
-        <v>0.02453773290868526</v>
+        <v>0.006330086945533647</v>
       </c>
       <c r="E63">
-        <v>0.01203053848790351</v>
+        <v>-0.008875846859755319</v>
       </c>
       <c r="F63">
-        <v>0.02833472556236566</v>
+        <v>-0.06000055464175558</v>
       </c>
       <c r="G63">
-        <v>-0.03740828157408302</v>
+        <v>0.008729640475440167</v>
       </c>
       <c r="H63">
-        <v>-0.03613717014071961</v>
+        <v>0.04793611422268554</v>
       </c>
       <c r="I63">
-        <v>0.004373571866184074</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.04295261717458134</v>
+      </c>
+      <c r="J63">
+        <v>-0.004939558078464577</v>
+      </c>
+      <c r="K63">
+        <v>-0.03504116219395133</v>
+      </c>
+      <c r="L63">
+        <v>-0.0226558683147602</v>
+      </c>
+      <c r="M63">
+        <v>-0.004833523721528898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.101401882192974</v>
+        <v>0.1011457890550489</v>
       </c>
       <c r="C64">
-        <v>0.03418647159950748</v>
+        <v>-0.04958583470564838</v>
       </c>
       <c r="D64">
-        <v>0.04157137170350484</v>
+        <v>-0.0002594475598664557</v>
       </c>
       <c r="E64">
-        <v>0.03376372191851094</v>
+        <v>0.03621337894866714</v>
       </c>
       <c r="F64">
-        <v>0.02660847918537161</v>
+        <v>-0.05717052947072186</v>
       </c>
       <c r="G64">
-        <v>0.0188945462649386</v>
+        <v>0.006205568831122468</v>
       </c>
       <c r="H64">
-        <v>-0.03037884501634162</v>
+        <v>0.00790162126790012</v>
       </c>
       <c r="I64">
-        <v>-0.09079338450824216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.08269812692918564</v>
+      </c>
+      <c r="J64">
+        <v>0.003360597997259912</v>
+      </c>
+      <c r="K64">
+        <v>0.005463893442917553</v>
+      </c>
+      <c r="L64">
+        <v>-0.04516753179441824</v>
+      </c>
+      <c r="M64">
+        <v>-0.06763409072299326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1260361010988503</v>
+        <v>0.1229701712668385</v>
       </c>
       <c r="C65">
-        <v>0.05928347401620909</v>
+        <v>-0.04289056907309545</v>
       </c>
       <c r="D65">
-        <v>0.06173678978530193</v>
+        <v>0.01199248899680362</v>
       </c>
       <c r="E65">
-        <v>0.1262258590927854</v>
+        <v>0.01138600787774295</v>
       </c>
       <c r="F65">
-        <v>0.1438383201935252</v>
+        <v>-0.03790881219558706</v>
       </c>
       <c r="G65">
-        <v>0.1078315940674534</v>
+        <v>-0.1989707596737978</v>
       </c>
       <c r="H65">
-        <v>-0.2696647914315118</v>
+        <v>-0.00403713410941667</v>
       </c>
       <c r="I65">
-        <v>0.5951182797006442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.1737367108306146</v>
+      </c>
+      <c r="J65">
+        <v>-0.08889557921839041</v>
+      </c>
+      <c r="K65">
+        <v>-0.6310805061378892</v>
+      </c>
+      <c r="L65">
+        <v>0.1192650776474639</v>
+      </c>
+      <c r="M65">
+        <v>0.08646522677733363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1549756970837158</v>
+        <v>0.1244568362694834</v>
       </c>
       <c r="C66">
-        <v>0.1580909306362847</v>
+        <v>-0.1313110728959079</v>
       </c>
       <c r="D66">
-        <v>0.04946241797657638</v>
+        <v>0.1023536758674257</v>
       </c>
       <c r="E66">
-        <v>-0.0176598673087901</v>
+        <v>-0.02306097283602215</v>
       </c>
       <c r="F66">
-        <v>-0.07542349493870296</v>
+        <v>-0.1610265472697352</v>
       </c>
       <c r="G66">
-        <v>-0.01855833675026943</v>
+        <v>0.0995047255524369</v>
       </c>
       <c r="H66">
-        <v>-0.04020655682998218</v>
+        <v>0.02080652776185805</v>
       </c>
       <c r="I66">
-        <v>-0.3664297796995321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1376063763711199</v>
+      </c>
+      <c r="J66">
+        <v>0.07691265041307219</v>
+      </c>
+      <c r="K66">
+        <v>0.218109122463933</v>
+      </c>
+      <c r="L66">
+        <v>-0.03371330515243418</v>
+      </c>
+      <c r="M66">
+        <v>-0.08038942382562111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07455574609026488</v>
+        <v>0.08247717883923464</v>
       </c>
       <c r="C67">
-        <v>0.04580602785450835</v>
+        <v>-0.06311582319305767</v>
       </c>
       <c r="D67">
-        <v>0.00892527587436355</v>
+        <v>-0.01749818214330729</v>
       </c>
       <c r="E67">
-        <v>0.01023565255318592</v>
+        <v>0.0226862254742505</v>
       </c>
       <c r="F67">
-        <v>-0.01196669927433479</v>
+        <v>0.02610200593836445</v>
       </c>
       <c r="G67">
-        <v>0.01065358488827978</v>
+        <v>0.09329266958446371</v>
       </c>
       <c r="H67">
-        <v>0.04507948346116698</v>
+        <v>-0.104426285092712</v>
       </c>
       <c r="I67">
-        <v>-0.05360738089924682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.01139567636562399</v>
+      </c>
+      <c r="J67">
+        <v>-0.09776814953302319</v>
+      </c>
+      <c r="K67">
+        <v>0.03730249578067975</v>
+      </c>
+      <c r="L67">
+        <v>-0.06034545302338253</v>
+      </c>
+      <c r="M67">
+        <v>-0.07419180389024511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1049637367590827</v>
+        <v>0.1237893379187892</v>
       </c>
       <c r="C68">
-        <v>-0.2678370114018361</v>
+        <v>0.2725867394536531</v>
       </c>
       <c r="D68">
-        <v>-0.00109910532385862</v>
+        <v>0.006081080407560497</v>
       </c>
       <c r="E68">
-        <v>0.009015861179283229</v>
+        <v>0.0009191814017756507</v>
       </c>
       <c r="F68">
-        <v>0.03179212112253547</v>
+        <v>-0.0190855886271409</v>
       </c>
       <c r="G68">
-        <v>-0.03214087236500431</v>
+        <v>0.02619780470164189</v>
       </c>
       <c r="H68">
-        <v>0.008736884467052347</v>
+        <v>0.02736584962876906</v>
       </c>
       <c r="I68">
-        <v>0.02016245654977359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.03419354924102287</v>
+      </c>
+      <c r="J68">
+        <v>-0.002457707906104537</v>
+      </c>
+      <c r="K68">
+        <v>-0.05904707410854611</v>
+      </c>
+      <c r="L68">
+        <v>-0.02188876295631323</v>
+      </c>
+      <c r="M68">
+        <v>-0.01773699591709978</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04329859690058937</v>
+        <v>0.04389130972787225</v>
       </c>
       <c r="C69">
-        <v>0.02995493119256282</v>
+        <v>-0.02383163318955802</v>
       </c>
       <c r="D69">
-        <v>0.00960826749625192</v>
+        <v>-0.01215059255065351</v>
       </c>
       <c r="E69">
-        <v>0.0174136329109548</v>
+        <v>-0.004889965719232119</v>
       </c>
       <c r="F69">
-        <v>-0.03981719483770834</v>
+        <v>-0.01538834013280469</v>
       </c>
       <c r="G69">
-        <v>-0.03303058429974472</v>
+        <v>0.04389571386284041</v>
       </c>
       <c r="H69">
-        <v>0.01307925808050495</v>
+        <v>-0.01108508627060673</v>
       </c>
       <c r="I69">
-        <v>0.0242844303190919</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.001516982696549467</v>
+      </c>
+      <c r="J69">
+        <v>-0.03551696633641594</v>
+      </c>
+      <c r="K69">
+        <v>-4.699975796721551e-06</v>
+      </c>
+      <c r="L69">
+        <v>0.002316505786773013</v>
+      </c>
+      <c r="M69">
+        <v>0.06073178010257368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03160314733620027</v>
+        <v>0.0524371987377115</v>
       </c>
       <c r="C70">
-        <v>0.008104767651794952</v>
+        <v>-0.03746370092279872</v>
       </c>
       <c r="D70">
-        <v>-0.009161167745698411</v>
+        <v>0.02508564427470626</v>
       </c>
       <c r="E70">
-        <v>0.008986918157323004</v>
+        <v>0.0104239663018349</v>
       </c>
       <c r="F70">
-        <v>0.01948122622158599</v>
+        <v>0.0007873434936296846</v>
       </c>
       <c r="G70">
-        <v>0.09837063652544682</v>
+        <v>-0.07631887177080734</v>
       </c>
       <c r="H70">
-        <v>0.06632364344429276</v>
+        <v>-0.02730987748439312</v>
       </c>
       <c r="I70">
-        <v>-0.007084179239712233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0931107857382075</v>
+      </c>
+      <c r="J70">
+        <v>-0.1446050219854002</v>
+      </c>
+      <c r="K70">
+        <v>-0.006703339087718817</v>
+      </c>
+      <c r="L70">
+        <v>-0.2954417580385506</v>
+      </c>
+      <c r="M70">
+        <v>0.1466819002080773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1082377746560159</v>
+        <v>0.136837647427401</v>
       </c>
       <c r="C71">
-        <v>-0.2804363080723176</v>
+        <v>0.2823566229705757</v>
       </c>
       <c r="D71">
-        <v>0.02620744822246955</v>
+        <v>0.008234454615947106</v>
       </c>
       <c r="E71">
-        <v>-0.00278161542208048</v>
+        <v>0.01969638441408037</v>
       </c>
       <c r="F71">
-        <v>0.02501454717950769</v>
+        <v>-0.02323341074047661</v>
       </c>
       <c r="G71">
-        <v>-0.001875085849198094</v>
+        <v>0.03165224538502367</v>
       </c>
       <c r="H71">
-        <v>0.01615417562870495</v>
+        <v>0.0154153252890492</v>
       </c>
       <c r="I71">
-        <v>-0.006358762149050456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04224115243277324</v>
+      </c>
+      <c r="J71">
+        <v>-0.009486867828783515</v>
+      </c>
+      <c r="K71">
+        <v>-0.01148262482079409</v>
+      </c>
+      <c r="L71">
+        <v>-0.01270439295178573</v>
+      </c>
+      <c r="M71">
+        <v>-0.01328722742843848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1840030432296457</v>
+        <v>0.1435846626634885</v>
       </c>
       <c r="C72">
-        <v>0.0502867473914514</v>
+        <v>-0.03741180701521275</v>
       </c>
       <c r="D72">
-        <v>-0.2172939668374076</v>
+        <v>-0.001822027433402268</v>
       </c>
       <c r="E72">
-        <v>-0.03098096434075875</v>
+        <v>-0.1828424285546708</v>
       </c>
       <c r="F72">
-        <v>-0.02785529991723321</v>
+        <v>-0.05603958092524463</v>
       </c>
       <c r="G72">
-        <v>-0.00960936556368738</v>
+        <v>0.002060167722513086</v>
       </c>
       <c r="H72">
-        <v>-0.1299761029895003</v>
+        <v>-0.03907623763848034</v>
       </c>
       <c r="I72">
-        <v>0.06781940172122816</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.01616211584866773</v>
+      </c>
+      <c r="J72">
+        <v>-0.03764303613086031</v>
+      </c>
+      <c r="K72">
+        <v>-0.1459201419086424</v>
+      </c>
+      <c r="L72">
+        <v>0.1041453173443124</v>
+      </c>
+      <c r="M72">
+        <v>-0.005474387169255026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2658848705156925</v>
+        <v>0.2361836033181196</v>
       </c>
       <c r="C73">
-        <v>0.1792861328663865</v>
+        <v>-0.1564514054057991</v>
       </c>
       <c r="D73">
-        <v>0.1538329577883338</v>
+        <v>0.153481980790233</v>
       </c>
       <c r="E73">
-        <v>-0.04803803701682183</v>
+        <v>0.08732086742027161</v>
       </c>
       <c r="F73">
-        <v>0.1147793530527392</v>
+        <v>0.3829678939696263</v>
       </c>
       <c r="G73">
-        <v>0.1623531452290158</v>
+        <v>-0.111333921925097</v>
       </c>
       <c r="H73">
-        <v>-0.1424840186610616</v>
+        <v>-0.1965714842544974</v>
       </c>
       <c r="I73">
-        <v>0.1333177548766742</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.364863814816031</v>
+      </c>
+      <c r="J73">
+        <v>-0.005268441623587839</v>
+      </c>
+      <c r="K73">
+        <v>0.2192066661940066</v>
+      </c>
+      <c r="L73">
+        <v>0.3018914002825309</v>
+      </c>
+      <c r="M73">
+        <v>-0.08054392345878415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08977458118896869</v>
+        <v>0.08733904514678958</v>
       </c>
       <c r="C74">
-        <v>0.02907712169786424</v>
+        <v>-0.06556161364432703</v>
       </c>
       <c r="D74">
-        <v>0.02557343954504099</v>
+        <v>0.009532441838430068</v>
       </c>
       <c r="E74">
-        <v>-0.01903888974430612</v>
+        <v>-0.008022153445933647</v>
       </c>
       <c r="F74">
-        <v>0.06012947758756578</v>
+        <v>0.03330363924552746</v>
       </c>
       <c r="G74">
-        <v>-0.1631753330741764</v>
+        <v>0.1488923492073962</v>
       </c>
       <c r="H74">
-        <v>-0.004973418146276437</v>
+        <v>0.03287489841108731</v>
       </c>
       <c r="I74">
-        <v>0.03759548904459108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0004458374474993707</v>
+      </c>
+      <c r="J74">
+        <v>-0.03961151712468475</v>
+      </c>
+      <c r="K74">
+        <v>-0.02011678174778273</v>
+      </c>
+      <c r="L74">
+        <v>0.04865333704675522</v>
+      </c>
+      <c r="M74">
+        <v>-0.03058023541343131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.10024252440942</v>
+        <v>0.09166805535028857</v>
       </c>
       <c r="C75">
-        <v>0.01947575624686422</v>
+        <v>-0.05071352381395616</v>
       </c>
       <c r="D75">
-        <v>0.02686997681765498</v>
+        <v>0.009575572848463937</v>
       </c>
       <c r="E75">
-        <v>-0.02440568543320991</v>
+        <v>-0.00989056932134917</v>
       </c>
       <c r="F75">
-        <v>-0.05264928053885428</v>
+        <v>0.02203154738347872</v>
       </c>
       <c r="G75">
-        <v>-0.1082188068266648</v>
+        <v>0.1095778272252541</v>
       </c>
       <c r="H75">
-        <v>0.05803558991727024</v>
+        <v>-0.0006038929468994076</v>
       </c>
       <c r="I75">
-        <v>0.07957711662399145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09887482027550697</v>
+      </c>
+      <c r="J75">
+        <v>-0.005814340856294121</v>
+      </c>
+      <c r="K75">
+        <v>-0.01703868221715804</v>
+      </c>
+      <c r="L75">
+        <v>0.02299670405282979</v>
+      </c>
+      <c r="M75">
+        <v>0.06789006508873031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.12924688409614</v>
+        <v>0.0984712613360408</v>
       </c>
       <c r="C76">
-        <v>0.03775798843686944</v>
+        <v>-0.0726093065296122</v>
       </c>
       <c r="D76">
-        <v>0.03062075428028477</v>
+        <v>0.006773298197620767</v>
       </c>
       <c r="E76">
-        <v>-0.009514274504066294</v>
+        <v>0.01121627628290183</v>
       </c>
       <c r="F76">
-        <v>-0.02132938492077182</v>
+        <v>0.05191135046843928</v>
       </c>
       <c r="G76">
-        <v>-0.2455088324379376</v>
+        <v>0.199979085832582</v>
       </c>
       <c r="H76">
-        <v>0.02917168255675888</v>
+        <v>0.02488064725550862</v>
       </c>
       <c r="I76">
-        <v>0.09405952440543922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1052635078403868</v>
+      </c>
+      <c r="J76">
+        <v>-0.01963853755148784</v>
+      </c>
+      <c r="K76">
+        <v>-0.06651232012689204</v>
+      </c>
+      <c r="L76">
+        <v>0.05011991696882053</v>
+      </c>
+      <c r="M76">
+        <v>-0.1095789201758315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07985229780737509</v>
+        <v>0.07220166225218722</v>
       </c>
       <c r="C77">
-        <v>0.02967814813578676</v>
+        <v>-0.01975081698846406</v>
       </c>
       <c r="D77">
-        <v>-0.0398309884663424</v>
+        <v>0.005055429412869384</v>
       </c>
       <c r="E77">
-        <v>0.3376232361212647</v>
+        <v>0.03421004302776585</v>
       </c>
       <c r="F77">
-        <v>-0.7025709013683985</v>
+        <v>-0.4966807873492008</v>
       </c>
       <c r="G77">
-        <v>0.1299512519838468</v>
+        <v>-0.1724258613004066</v>
       </c>
       <c r="H77">
-        <v>-0.3499722862280429</v>
+        <v>-0.6861530398834077</v>
       </c>
       <c r="I77">
-        <v>-0.08565597776717547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1508038331461548</v>
+      </c>
+      <c r="J77">
+        <v>-0.08870792991587584</v>
+      </c>
+      <c r="K77">
+        <v>0.05427554982855791</v>
+      </c>
+      <c r="L77">
+        <v>0.1121974694861251</v>
+      </c>
+      <c r="M77">
+        <v>-0.1608328947004926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.129271121632706</v>
+        <v>0.1714141769004892</v>
       </c>
       <c r="C78">
-        <v>0.09059162475645409</v>
+        <v>-0.1220592457227015</v>
       </c>
       <c r="D78">
-        <v>0.0231537908143332</v>
+        <v>-0.1763751930738766</v>
       </c>
       <c r="E78">
-        <v>0.1490096443637855</v>
+        <v>0.1247795802408549</v>
       </c>
       <c r="F78">
-        <v>0.07180618912925815</v>
+        <v>-0.1109703502730223</v>
       </c>
       <c r="G78">
-        <v>0.04294602413908109</v>
+        <v>-0.2674643209228157</v>
       </c>
       <c r="H78">
-        <v>0.03492059212000576</v>
+        <v>0.1832151794809105</v>
       </c>
       <c r="I78">
-        <v>-0.1025227225152018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3836333006935642</v>
+      </c>
+      <c r="J78">
+        <v>0.6505052605799491</v>
+      </c>
+      <c r="K78">
+        <v>0.006812520059771672</v>
+      </c>
+      <c r="L78">
+        <v>0.2219659816210774</v>
+      </c>
+      <c r="M78">
+        <v>-0.05798406140350968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1425529361688</v>
+        <v>0.1351485347094224</v>
       </c>
       <c r="C79">
-        <v>0.05550946072706622</v>
+        <v>-0.07450116108218306</v>
       </c>
       <c r="D79">
-        <v>0.03450479947440016</v>
+        <v>0.003240334776212582</v>
       </c>
       <c r="E79">
-        <v>-0.04105731292139946</v>
+        <v>0.004454854689494771</v>
       </c>
       <c r="F79">
-        <v>-0.03900764520140573</v>
+        <v>0.003446448967611881</v>
       </c>
       <c r="G79">
-        <v>-0.1679627248794482</v>
+        <v>0.1628973781253392</v>
       </c>
       <c r="H79">
-        <v>0.05793651357122116</v>
+        <v>0.01464347520391305</v>
       </c>
       <c r="I79">
-        <v>0.04034845458741702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.08841794143880666</v>
+      </c>
+      <c r="J79">
+        <v>-0.06815638735736461</v>
+      </c>
+      <c r="K79">
+        <v>-0.06041801705319572</v>
+      </c>
+      <c r="L79">
+        <v>0.03762388701959614</v>
+      </c>
+      <c r="M79">
+        <v>-0.0144741158720977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.0219213044156027</v>
+        <v>0.05501677683345155</v>
       </c>
       <c r="C80">
-        <v>-0.002896321418156329</v>
+        <v>-0.01985592556893769</v>
       </c>
       <c r="D80">
-        <v>-0.00382364099370478</v>
+        <v>0.06633802195916477</v>
       </c>
       <c r="E80">
-        <v>-0.01984131999560566</v>
+        <v>0.005865406703749797</v>
       </c>
       <c r="F80">
-        <v>0.03062862668639144</v>
+        <v>0.007676439103263627</v>
       </c>
       <c r="G80">
-        <v>0.004860209562708609</v>
+        <v>-0.03683372060094816</v>
       </c>
       <c r="H80">
-        <v>-0.0629325203957595</v>
+        <v>0.1044604576657601</v>
       </c>
       <c r="I80">
-        <v>0.01994575011619983</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.08880438994334049</v>
+      </c>
+      <c r="J80">
+        <v>0.02549791614678654</v>
+      </c>
+      <c r="K80">
+        <v>-0.006960962962583914</v>
+      </c>
+      <c r="L80">
+        <v>-0.08514718849513815</v>
+      </c>
+      <c r="M80">
+        <v>-0.02561634362671643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1170076894745033</v>
+        <v>0.1199609679108941</v>
       </c>
       <c r="C81">
-        <v>0.05030932366402063</v>
+        <v>-0.05353066406148842</v>
       </c>
       <c r="D81">
-        <v>0.04566420808608913</v>
+        <v>0.001768257460623463</v>
       </c>
       <c r="E81">
-        <v>-0.03088711916714982</v>
+        <v>0.009088269506449313</v>
       </c>
       <c r="F81">
-        <v>-0.02400220895201526</v>
+        <v>-0.009472937448762434</v>
       </c>
       <c r="G81">
-        <v>-0.1030943263126442</v>
+        <v>0.1509074001294244</v>
       </c>
       <c r="H81">
-        <v>0.02313880165430807</v>
+        <v>0.04256187273221759</v>
       </c>
       <c r="I81">
-        <v>0.04581949733176467</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.07548653206665015</v>
+      </c>
+      <c r="J81">
+        <v>-0.03661252432275629</v>
+      </c>
+      <c r="K81">
+        <v>0.009040667336445918</v>
+      </c>
+      <c r="L81">
+        <v>0.02490198207510826</v>
+      </c>
+      <c r="M81">
+        <v>0.05272797552415252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1103190504722556</v>
+        <v>0.1174730835427061</v>
       </c>
       <c r="C82">
-        <v>0.03331598497247516</v>
+        <v>-0.05304589200020948</v>
       </c>
       <c r="D82">
-        <v>0.06357487293360306</v>
+        <v>0.02455931403611609</v>
       </c>
       <c r="E82">
-        <v>-0.08037398213578867</v>
+        <v>-0.005697794585461987</v>
       </c>
       <c r="F82">
-        <v>-0.05718568186354059</v>
+        <v>0.03655941260502553</v>
       </c>
       <c r="G82">
-        <v>-0.2734613592218729</v>
+        <v>0.2276470253103353</v>
       </c>
       <c r="H82">
-        <v>0.07202661849310955</v>
+        <v>0.04754409350616162</v>
       </c>
       <c r="I82">
-        <v>0.01824685798672746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.114990406576674</v>
+      </c>
+      <c r="J82">
+        <v>-0.06895809513159426</v>
+      </c>
+      <c r="K82">
+        <v>0.01032720553719456</v>
+      </c>
+      <c r="L82">
+        <v>-0.006704136799292316</v>
+      </c>
+      <c r="M82">
+        <v>-0.01982240422969806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.05221979984568964</v>
+        <v>0.07585158364324132</v>
       </c>
       <c r="C83">
-        <v>0.03215358619508741</v>
+        <v>-0.06340722646952796</v>
       </c>
       <c r="D83">
-        <v>0.0372665957383765</v>
+        <v>0.01472216786720075</v>
       </c>
       <c r="E83">
-        <v>-0.02440445117764899</v>
+        <v>0.01055508369557405</v>
       </c>
       <c r="F83">
-        <v>-0.0130978583783347</v>
+        <v>0.009176471464558029</v>
       </c>
       <c r="G83">
-        <v>0.09835830273027049</v>
+        <v>0.02105565350943713</v>
       </c>
       <c r="H83">
-        <v>0.05065241408715893</v>
+        <v>-0.04725249279275926</v>
       </c>
       <c r="I83">
-        <v>-0.06437633688998542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.05720997687031925</v>
+      </c>
+      <c r="J83">
+        <v>0.005505534338347775</v>
+      </c>
+      <c r="K83">
+        <v>0.0263933078396407</v>
+      </c>
+      <c r="L83">
+        <v>-0.1689741277117991</v>
+      </c>
+      <c r="M83">
+        <v>0.009943853106417763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05523366584365798</v>
+        <v>0.04310992903244824</v>
       </c>
       <c r="C84">
-        <v>0.02963519692939048</v>
+        <v>0.02188177265964691</v>
       </c>
       <c r="D84">
-        <v>-0.01863605421866871</v>
+        <v>0.003367864628651066</v>
       </c>
       <c r="E84">
-        <v>-0.01646323068327661</v>
+        <v>-0.0232000460303663</v>
       </c>
       <c r="F84">
-        <v>0.1205717517515274</v>
+        <v>-0.01016700782132373</v>
       </c>
       <c r="G84">
-        <v>-0.02831690920343007</v>
+        <v>-0.2134339628307848</v>
       </c>
       <c r="H84">
-        <v>0.04926404011105216</v>
+        <v>0.2456447719072217</v>
       </c>
       <c r="I84">
-        <v>-0.03799135873995486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.01191982118870128</v>
+      </c>
+      <c r="J84">
+        <v>-0.0668718580215069</v>
+      </c>
+      <c r="K84">
+        <v>0.1574779695874853</v>
+      </c>
+      <c r="L84">
+        <v>-0.05453957143043597</v>
+      </c>
+      <c r="M84">
+        <v>-0.4672973138405402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07863633989411667</v>
+        <v>0.107648490118211</v>
       </c>
       <c r="C85">
-        <v>0.04065113084776751</v>
+        <v>-0.05151410900727693</v>
       </c>
       <c r="D85">
-        <v>0.05831369563352869</v>
+        <v>0.01639021104978047</v>
       </c>
       <c r="E85">
-        <v>-0.00731639677293494</v>
+        <v>0.0329654537275782</v>
       </c>
       <c r="F85">
-        <v>-0.02673259483612543</v>
+        <v>-0.0007224090856419808</v>
       </c>
       <c r="G85">
-        <v>-0.1891279724637782</v>
+        <v>0.1690713934925658</v>
       </c>
       <c r="H85">
-        <v>0.002418377239174243</v>
+        <v>0.02579219931377746</v>
       </c>
       <c r="I85">
-        <v>0.0438219745296334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0835598861631099</v>
+      </c>
+      <c r="J85">
+        <v>-0.06131759963783488</v>
+      </c>
+      <c r="K85">
+        <v>-0.05604075665032354</v>
+      </c>
+      <c r="L85">
+        <v>0.05708220013160028</v>
+      </c>
+      <c r="M85">
+        <v>-0.00194904000500042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03955395510634004</v>
+        <v>0.07117904369361749</v>
       </c>
       <c r="C86">
-        <v>0.05097417085404287</v>
+        <v>-0.02366430327052212</v>
       </c>
       <c r="D86">
-        <v>0.007059653998445716</v>
+        <v>-0.01525112948125449</v>
       </c>
       <c r="E86">
-        <v>0.04514542556299787</v>
+        <v>0.1017200201593803</v>
       </c>
       <c r="F86">
-        <v>-0.02829721383178947</v>
+        <v>-0.04753326892305614</v>
       </c>
       <c r="G86">
-        <v>0.04053843676722078</v>
+        <v>-0.3706940614266484</v>
       </c>
       <c r="H86">
-        <v>-0.08349098989958523</v>
+        <v>0.3569100074541735</v>
       </c>
       <c r="I86">
-        <v>0.06445979523369891</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2732538511325392</v>
+      </c>
+      <c r="J86">
+        <v>-0.5277143116219282</v>
+      </c>
+      <c r="K86">
+        <v>0.192542670940423</v>
+      </c>
+      <c r="L86">
+        <v>0.2469237914709921</v>
+      </c>
+      <c r="M86">
+        <v>0.04133399543230704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09272557297430452</v>
+        <v>0.1099207553137253</v>
       </c>
       <c r="C87">
-        <v>0.06773210918164357</v>
+        <v>-0.06765523993162492</v>
       </c>
       <c r="D87">
-        <v>0.01431913248536728</v>
+        <v>-0.03721146577538184</v>
       </c>
       <c r="E87">
-        <v>0.1399291155355956</v>
+        <v>0.03123429788245475</v>
       </c>
       <c r="F87">
-        <v>-0.1295931321445031</v>
+        <v>-0.1658831031429346</v>
       </c>
       <c r="G87">
-        <v>0.03690205837996088</v>
+        <v>-0.1002013209414871</v>
       </c>
       <c r="H87">
-        <v>-0.06938930584196229</v>
+        <v>-0.1227935554663557</v>
       </c>
       <c r="I87">
-        <v>-0.1034193888039776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.01123314884590624</v>
+      </c>
+      <c r="J87">
+        <v>-0.06813849385579719</v>
+      </c>
+      <c r="K87">
+        <v>0.03171909442118059</v>
+      </c>
+      <c r="L87">
+        <v>-0.07004561005375022</v>
+      </c>
+      <c r="M87">
+        <v>-0.06083250400206967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0460298014727595</v>
+        <v>0.05745128000263239</v>
       </c>
       <c r="C88">
-        <v>0.03829981029925519</v>
+        <v>-0.05294361446871858</v>
       </c>
       <c r="D88">
-        <v>0.01774877552684173</v>
+        <v>0.0300633600499343</v>
       </c>
       <c r="E88">
-        <v>0.003905125146939359</v>
+        <v>0.0144485230722153</v>
       </c>
       <c r="F88">
-        <v>0.001573576640560982</v>
+        <v>-0.02794511881702949</v>
       </c>
       <c r="G88">
-        <v>0.018704087187742</v>
+        <v>0.02928001944898352</v>
       </c>
       <c r="H88">
-        <v>-0.0003039531584656447</v>
+        <v>0.02250757907913237</v>
       </c>
       <c r="I88">
-        <v>-0.04518652354802825</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04282120470385484</v>
+      </c>
+      <c r="J88">
+        <v>-0.005286422712526018</v>
+      </c>
+      <c r="K88">
+        <v>0.02712804489969097</v>
+      </c>
+      <c r="L88">
+        <v>-0.01808713818860369</v>
+      </c>
+      <c r="M88">
+        <v>0.0174867116721567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1735372285882672</v>
+        <v>0.2192945514294962</v>
       </c>
       <c r="C89">
-        <v>-0.3188273312370472</v>
+        <v>0.354989601181946</v>
       </c>
       <c r="D89">
-        <v>0.06550892127155881</v>
+        <v>-0.04372684675812368</v>
       </c>
       <c r="E89">
-        <v>0.08646835709000829</v>
+        <v>0.08326932549684149</v>
       </c>
       <c r="F89">
-        <v>0.01308765190559578</v>
+        <v>-0.008494922752725193</v>
       </c>
       <c r="G89">
-        <v>0.03468978555487514</v>
+        <v>0.01112169623297307</v>
       </c>
       <c r="H89">
-        <v>0.02571823630618926</v>
+        <v>0.01741625332738041</v>
       </c>
       <c r="I89">
-        <v>0.007460480540534378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.02265545871268669</v>
+      </c>
+      <c r="J89">
+        <v>0.0341702254772344</v>
+      </c>
+      <c r="K89">
+        <v>0.06161767514638512</v>
+      </c>
+      <c r="L89">
+        <v>-0.01920797109489333</v>
+      </c>
+      <c r="M89">
+        <v>0.1039450084072514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1329358735403735</v>
+        <v>0.1508248337301072</v>
       </c>
       <c r="C90">
-        <v>-0.272392460083204</v>
+        <v>0.2690875726599725</v>
       </c>
       <c r="D90">
-        <v>0.004767096294006139</v>
+        <v>0.005623377226021059</v>
       </c>
       <c r="E90">
-        <v>0.05500792249439625</v>
+        <v>0.01805924519567062</v>
       </c>
       <c r="F90">
-        <v>-0.005471804041055882</v>
+        <v>-0.03018451382213945</v>
       </c>
       <c r="G90">
-        <v>0.03703800551257572</v>
+        <v>-0.002821154025957138</v>
       </c>
       <c r="H90">
-        <v>-0.05007165759060565</v>
+        <v>-0.01079198306781714</v>
       </c>
       <c r="I90">
-        <v>-0.09670160896985125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.06987116259892778</v>
+      </c>
+      <c r="J90">
+        <v>0.008074848319153564</v>
+      </c>
+      <c r="K90">
+        <v>0.01894888216419664</v>
+      </c>
+      <c r="L90">
+        <v>-0.003639609178021121</v>
+      </c>
+      <c r="M90">
+        <v>-0.04375688746765593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08340052146722174</v>
+        <v>0.07593477562352226</v>
       </c>
       <c r="C91">
-        <v>0.03383570551680962</v>
+        <v>-0.05132580841295891</v>
       </c>
       <c r="D91">
-        <v>0.01934779047991565</v>
+        <v>-0.01066419826503928</v>
       </c>
       <c r="E91">
-        <v>0.01014367930651341</v>
+        <v>0.008757243494229183</v>
       </c>
       <c r="F91">
-        <v>-0.007805167463976381</v>
+        <v>0.01692144112711379</v>
       </c>
       <c r="G91">
-        <v>-0.1087680806288942</v>
+        <v>0.08599715966723047</v>
       </c>
       <c r="H91">
-        <v>0.031695802323503</v>
+        <v>0.01353185394428674</v>
       </c>
       <c r="I91">
-        <v>0.05131625954481303</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06436011122516076</v>
+      </c>
+      <c r="J91">
+        <v>-0.002686916858801067</v>
+      </c>
+      <c r="K91">
+        <v>-0.001327158058471885</v>
+      </c>
+      <c r="L91">
+        <v>0.0358544385504115</v>
+      </c>
+      <c r="M91">
+        <v>0.01495177532836207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1490682900708332</v>
+        <v>0.1672950220530844</v>
       </c>
       <c r="C92">
-        <v>-0.306547615017745</v>
+        <v>0.3027717573585356</v>
       </c>
       <c r="D92">
-        <v>0.04525410151599435</v>
+        <v>-0.02922567398116128</v>
       </c>
       <c r="E92">
-        <v>0.02919401597386535</v>
+        <v>0.04691718903088227</v>
       </c>
       <c r="F92">
-        <v>0.06734550683060483</v>
+        <v>-0.00738432115859401</v>
       </c>
       <c r="G92">
-        <v>0.005769494803839556</v>
+        <v>0.03182188749635841</v>
       </c>
       <c r="H92">
-        <v>0.04168245679825905</v>
+        <v>0.01954894701979116</v>
       </c>
       <c r="I92">
-        <v>0.006657559958725958</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01715126341728964</v>
+      </c>
+      <c r="J92">
+        <v>0.03570415862751213</v>
+      </c>
+      <c r="K92">
+        <v>0.01756505103830351</v>
+      </c>
+      <c r="L92">
+        <v>0.005587052770684423</v>
+      </c>
+      <c r="M92">
+        <v>0.03789603542074653</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1413696318062525</v>
+        <v>0.1647558824090553</v>
       </c>
       <c r="C93">
-        <v>-0.2494482615324224</v>
+        <v>0.2873622652851767</v>
       </c>
       <c r="D93">
-        <v>0.01627700664198314</v>
+        <v>0.02695851744035198</v>
       </c>
       <c r="E93">
-        <v>0.01908094846162693</v>
+        <v>0.007411980356155109</v>
       </c>
       <c r="F93">
-        <v>0.01555352473797266</v>
+        <v>-0.007986236877884885</v>
       </c>
       <c r="G93">
-        <v>0.04915433033979427</v>
+        <v>-0.01329310926122551</v>
       </c>
       <c r="H93">
-        <v>-0.01102643950432873</v>
+        <v>0.02485411823778206</v>
       </c>
       <c r="I93">
-        <v>-0.03123079663302065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.0158573764138644</v>
+      </c>
+      <c r="J93">
+        <v>-0.0329961270784422</v>
+      </c>
+      <c r="K93">
+        <v>0.01071976003385059</v>
+      </c>
+      <c r="L93">
+        <v>-0.02262447415369348</v>
+      </c>
+      <c r="M93">
+        <v>-0.0241695578918294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08774538453403515</v>
+        <v>0.1058365532519481</v>
       </c>
       <c r="C94">
-        <v>0.06388912223401912</v>
+        <v>-0.07662959278031324</v>
       </c>
       <c r="D94">
-        <v>0.01890343617451295</v>
+        <v>-0.01125797575525242</v>
       </c>
       <c r="E94">
-        <v>0.004526726567530553</v>
+        <v>0.01618869942716037</v>
       </c>
       <c r="F94">
-        <v>-0.01988438750061967</v>
+        <v>0.04009397074406305</v>
       </c>
       <c r="G94">
-        <v>-0.1518585876667764</v>
+        <v>0.1261246684219165</v>
       </c>
       <c r="H94">
-        <v>0.07596215946531697</v>
+        <v>0.02330562664177994</v>
       </c>
       <c r="I94">
-        <v>0.1073373908321039</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.06151954824641177</v>
+      </c>
+      <c r="J94">
+        <v>0.004565100872055854</v>
+      </c>
+      <c r="K94">
+        <v>-0.0168511436863213</v>
+      </c>
+      <c r="L94">
+        <v>0.03562044155965473</v>
+      </c>
+      <c r="M94">
+        <v>0.05985236484023399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09734778499710089</v>
+        <v>0.1348650218887474</v>
       </c>
       <c r="C95">
-        <v>0.09218741862262131</v>
+        <v>-0.07343628507908426</v>
       </c>
       <c r="D95">
-        <v>0.08332674623710344</v>
+        <v>-0.00942096630778619</v>
       </c>
       <c r="E95">
-        <v>0.02773093917675547</v>
+        <v>0.0740092549904813</v>
       </c>
       <c r="F95">
-        <v>0.04087255525431523</v>
+        <v>-0.05904939114058348</v>
       </c>
       <c r="G95">
-        <v>0.0128479811985893</v>
+        <v>-0.1850423279377349</v>
       </c>
       <c r="H95">
-        <v>-0.04504211466987024</v>
+        <v>0.08702772283174423</v>
       </c>
       <c r="I95">
-        <v>-0.03515221857806605</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1433241104228745</v>
+      </c>
+      <c r="J95">
+        <v>-0.1681009223231039</v>
+      </c>
+      <c r="K95">
+        <v>0.03782508986653035</v>
+      </c>
+      <c r="L95">
+        <v>0.02786202712685348</v>
+      </c>
+      <c r="M95">
+        <v>0.2266349552077745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3049617384728717</v>
+        <v>0.1723020594136761</v>
       </c>
       <c r="C97">
-        <v>0.05466215798264137</v>
+        <v>-0.00929524728878678</v>
       </c>
       <c r="D97">
-        <v>-0.8674473299173026</v>
+        <v>-0.1082525279633245</v>
       </c>
       <c r="E97">
-        <v>-0.1692123349198852</v>
+        <v>-0.93197713352103</v>
       </c>
       <c r="F97">
-        <v>0.05904456374533986</v>
+        <v>-0.02888051679426303</v>
       </c>
       <c r="G97">
-        <v>0.07106191548796528</v>
+        <v>-0.1089699576311825</v>
       </c>
       <c r="H97">
-        <v>-0.06128394775226237</v>
+        <v>0.04300185846291214</v>
       </c>
       <c r="I97">
-        <v>0.0001695973407800322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.01236117599920013</v>
+      </c>
+      <c r="J97">
+        <v>0.01790267119827199</v>
+      </c>
+      <c r="K97">
+        <v>0.06187670088052548</v>
+      </c>
+      <c r="L97">
+        <v>0.03387925319705595</v>
+      </c>
+      <c r="M97">
+        <v>0.03417996708258213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2634549390957506</v>
+        <v>0.2605286369033304</v>
       </c>
       <c r="C98">
-        <v>0.103782153164011</v>
+        <v>-0.1235371814535051</v>
       </c>
       <c r="D98">
-        <v>0.1775691809500479</v>
+        <v>0.01629017270381805</v>
       </c>
       <c r="E98">
-        <v>-0.3139042729925475</v>
+        <v>0.02040712742565129</v>
       </c>
       <c r="F98">
-        <v>0.0944461027669766</v>
+        <v>0.4112008306348682</v>
       </c>
       <c r="G98">
-        <v>0.5013814941506528</v>
+        <v>-0.2801494826773427</v>
       </c>
       <c r="H98">
-        <v>0.286682654619461</v>
+        <v>-0.1747189775999649</v>
       </c>
       <c r="I98">
-        <v>-0.1487736988356279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2392311967724866</v>
+      </c>
+      <c r="J98">
+        <v>0.1100711533720488</v>
+      </c>
+      <c r="K98">
+        <v>-0.02417383635727318</v>
+      </c>
+      <c r="L98">
+        <v>-0.5750997955959476</v>
+      </c>
+      <c r="M98">
+        <v>-0.04013360462876792</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06039297136587491</v>
+        <v>0.07086625672898328</v>
       </c>
       <c r="C99">
-        <v>0.03299194756503762</v>
+        <v>-0.04965610191758296</v>
       </c>
       <c r="D99">
-        <v>-0.04014553253102349</v>
+        <v>-0.02497440792639359</v>
       </c>
       <c r="E99">
-        <v>-0.01349697698335273</v>
+        <v>0.00390598580489836</v>
       </c>
       <c r="F99">
-        <v>-0.5026879659320261</v>
+        <v>0.003490336337169157</v>
       </c>
       <c r="G99">
-        <v>0.1241467811407415</v>
+        <v>0.05843570311788158</v>
       </c>
       <c r="H99">
-        <v>0.6513439314280965</v>
+        <v>-0.1726397812197987</v>
       </c>
       <c r="I99">
-        <v>0.3327051594408332</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2623724957073529</v>
+      </c>
+      <c r="J99">
+        <v>-0.09849871688096706</v>
+      </c>
+      <c r="K99">
+        <v>0.2061150355850921</v>
+      </c>
+      <c r="L99">
+        <v>-0.03888295645645794</v>
+      </c>
+      <c r="M99">
+        <v>0.5728121993567165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04588225230172037</v>
+        <v>0.04475326671892468</v>
       </c>
       <c r="C101">
-        <v>0.01477469549076511</v>
+        <v>-0.02338809843963288</v>
       </c>
       <c r="D101">
-        <v>0.01077113756116041</v>
+        <v>0.0007124480168522637</v>
       </c>
       <c r="E101">
-        <v>0.0281887930255006</v>
+        <v>0.02118128209449541</v>
       </c>
       <c r="F101">
-        <v>0.03284992638100602</v>
+        <v>-0.04703688065981172</v>
       </c>
       <c r="G101">
-        <v>-0.004064884381276582</v>
+        <v>0.03267451677483906</v>
       </c>
       <c r="H101">
-        <v>-0.01940279043970092</v>
+        <v>0.06398433554150933</v>
       </c>
       <c r="I101">
-        <v>-0.003861179629871122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.00319953993718796</v>
+      </c>
+      <c r="J101">
+        <v>-0.02733446414897595</v>
+      </c>
+      <c r="K101">
+        <v>-0.025585379554341</v>
+      </c>
+      <c r="L101">
+        <v>-0.03136413915004782</v>
+      </c>
+      <c r="M101">
+        <v>-0.01671109752290302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
